--- a/RS01SLBS/Omaha_Cal_Info_RS01SLBS_00003.xlsx
+++ b/RS01SLBS/Omaha_Cal_Info_RS01SLBS_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="204_CC_tcarray" sheetId="3" r:id="rId3"/>
     <sheet name="204_CC_taarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>Ref Des</t>
   </si>
@@ -209,17 +209,20 @@
   <si>
     <t>[400.10000000, 403.40000000, 406.90000000, 410.30000000, 413.20000000, 416.90000000, 420.60000000, 425.10000000, 429.00000000, 432.90000000, 436.80000000, 440.50000000, 444.70000000, 449.70000000, 453.90000000, 458.20000000, 462.20000000, 466.40000000, 471.10000000, 476.10000000, 480.80000000, 485.50000000, 489.70000000, 494.10000000, 498.10000000, 502.40000000, 506.90000000, 512.10000000, 516.60000000, 521.60000000, 525.60000000, 530.30000000, 534.20000000, 538.50000000, 542.80000000, 547.30000000, 551.20000000, 556.20000000, 560.30000000, 564.90000000, 569.00000000, 572.90000000, 576.60000000, 580.50000000, 584.40000000, 588.50000000, 592.70000000, 597.20000000, 601.80000000, 606.30000000, 610.70000000, 615.40000000, 619.40000000, 623.90000000, 627.50000000, 631.90000000, 635.80000000, 640.00000000, 644.10000000, 648.40000000, 652.50000000, 657.00000000, 661.10000000, 665.40000000, 669.60000000, 674.00000000, 677.80000000, 681.90000000, 685.50000000, 689.00000000, 692.80000000, 696.30000000, 699.90000000, 703.30000000, 707.00000000, 710.00000000, 713.60000000, 717.10000000, 720.00000000, 723.70000000, 726.50000000, 729.90000000, 732.30000000]</t>
   </si>
+  <si>
+    <t>TN-313</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1123,7 +1126,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1158,7 +1160,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1334,14 +1335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="53" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="53"/>
@@ -1354,7 +1355,7 @@
     <col min="15" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1430,8 +1431,8 @@
       <c r="I2" s="19">
         <v>2921</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>51</v>
+      <c r="J2" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="54">
@@ -1458,7 +1459,7 @@
       <c r="Y2" s="55"/>
       <c r="Z2" s="55"/>
     </row>
-    <row r="3" spans="1:26" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="34" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>43</v>
       </c>
@@ -1512,7 +1513,7 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="25"/>
@@ -1527,7 +1528,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
@@ -1539,7 +1540,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
@@ -1551,7 +1552,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="17"/>
@@ -1563,7 +1564,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="17"/>
@@ -1575,239 +1576,239 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="18"/>
     </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
     </row>
-    <row r="13" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="G15" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="17" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="18" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="19" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="20" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="21" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="22" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="23" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="24" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="27" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="28" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="29" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="30" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="31" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="32" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="33" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="34" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="35" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="36" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="37" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="38" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="39" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="40" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="41" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="42" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="43" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="44" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="45" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="46" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="47" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="48" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="49" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="50" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="51" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="52" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="53" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="54" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="55" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="56" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="57" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="58" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="59" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="60" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="61" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="62" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="63" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="64" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="65" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="66" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="67" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="68" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="69" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="70" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="71" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="72" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="73" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="74" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="75" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="76" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="77" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="78" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="79" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="80" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="81" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="83" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="84" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="85" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="86" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="87" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="88" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="89" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="90" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="91" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="92" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="93" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="94" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="95" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="96" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="99" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="100" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="102" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="103" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="104" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="105" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="106" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="107" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="108" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="109" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="110" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="111" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="112" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="113" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="114" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="115" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="116" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="117" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="118" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="119" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="120" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="121" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="122" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="123" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="124" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="125" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="126" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="127" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="128" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="129" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="130" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="131" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="132" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="133" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="134" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="135" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="136" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="137" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="138" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="139" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="140" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="141" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="142" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="143" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="144" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="145" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="146" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="147" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="148" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="149" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="150" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="151" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="152" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="153" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="154" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="155" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="156" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="157" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="158" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="159" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="160" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="161" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="162" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="163" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="164" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="165" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="166" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="167" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="168" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="169" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="170" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="171" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="172" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="173" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="174" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="175" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="176" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="177" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="178" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="179" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="180" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="181" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="182" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="183" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="184" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="185" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="186" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="187" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="188" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="189" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="190" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="191" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="192" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="193" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="194" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="195" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="196" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="197" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="198" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="199" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="200" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="201" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="202" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="203" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="204" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="205" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="206" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="207" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="208" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="209" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="210" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="211" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="212" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="213" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="214" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="215" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="216" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="217" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="218" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="219" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="220" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="221" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="222" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="223" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="224" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="225" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="226" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="227" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="228" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="229" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="230" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="231" s="26" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1815,15 +1816,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="53"/>
@@ -1835,7 +1836,7 @@
     <col min="8" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="26" customFormat="1" ht="30">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1859,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="25"/>
@@ -1886,15 +1887,15 @@
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
     </row>
-    <row r="3" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="25">
-        <v>2</v>
+      <c r="C3" s="49">
+        <v>3</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>17</v>
@@ -1924,15 +1925,15 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
     </row>
-    <row r="4" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25">
-        <v>2</v>
+      <c r="C4" s="49">
+        <v>3</v>
       </c>
       <c r="D4" s="25">
         <v>299470</v>
@@ -1962,15 +1963,15 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25">
-        <v>2</v>
+      <c r="C5" s="49">
+        <v>3</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>20</v>
@@ -2000,7 +2001,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
     </row>
-    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="41"/>
       <c r="C6" s="25"/>
@@ -2011,15 +2012,15 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25">
-        <v>2</v>
+      <c r="C7" s="49">
+        <v>3</v>
       </c>
       <c r="D7" s="25">
         <v>10313</v>
@@ -2036,15 +2037,15 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A8" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25">
-        <v>2</v>
+      <c r="C8" s="49">
+        <v>3</v>
       </c>
       <c r="D8" s="25">
         <v>10313</v>
@@ -2078,7 +2079,7 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
     </row>
-    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="41"/>
       <c r="C9" s="25"/>
@@ -2106,15 +2107,15 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
     </row>
-    <row r="10" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A10" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="25">
-        <v>2</v>
+      <c r="C10" s="49">
+        <v>3</v>
       </c>
       <c r="D10" s="49">
         <v>3</v>
@@ -2142,7 +2143,7 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
     </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A11" s="34"/>
       <c r="B11" s="19"/>
       <c r="C11" s="25"/>
@@ -2153,15 +2154,15 @@
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A12" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="25">
-        <v>2</v>
+      <c r="C12" s="49">
+        <v>3</v>
       </c>
       <c r="D12" s="25">
         <v>1363</v>
@@ -2195,7 +2196,7 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
     </row>
-    <row r="13" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="25"/>
@@ -2223,15 +2224,15 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A14" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="25">
-        <v>2</v>
+      <c r="C14" s="49">
+        <v>3</v>
       </c>
       <c r="D14" s="25">
         <v>23442</v>
@@ -2265,15 +2266,15 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
     </row>
-    <row r="15" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A15" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="25">
-        <v>2</v>
+      <c r="C15" s="49">
+        <v>3</v>
       </c>
       <c r="D15" s="25">
         <v>23442</v>
@@ -2307,15 +2308,15 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
     </row>
-    <row r="16" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A16" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="25">
-        <v>2</v>
+      <c r="C16" s="49">
+        <v>3</v>
       </c>
       <c r="D16" s="25">
         <v>23442</v>
@@ -2349,15 +2350,15 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
     </row>
-    <row r="17" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A17" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="25">
-        <v>2</v>
+      <c r="C17" s="49">
+        <v>3</v>
       </c>
       <c r="D17" s="25">
         <v>23442</v>
@@ -2391,15 +2392,15 @@
       <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
     </row>
-    <row r="18" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A18" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="25">
-        <v>2</v>
+      <c r="C18" s="49">
+        <v>3</v>
       </c>
       <c r="D18" s="25">
         <v>23442</v>
@@ -2416,15 +2417,15 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A19" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="25">
-        <v>2</v>
+      <c r="C19" s="49">
+        <v>3</v>
       </c>
       <c r="D19" s="25">
         <v>23442</v>
@@ -2441,7 +2442,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="25"/>
@@ -2452,15 +2453,15 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A21" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="25">
-        <v>2</v>
+      <c r="C21" s="49">
+        <v>3</v>
       </c>
       <c r="D21" s="25">
         <v>204</v>
@@ -2477,15 +2478,15 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A22" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="25">
-        <v>2</v>
+      <c r="C22" s="49">
+        <v>3</v>
       </c>
       <c r="D22" s="25">
         <v>204</v>
@@ -2502,15 +2503,15 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A23" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="25">
-        <v>2</v>
+      <c r="C23" s="49">
+        <v>3</v>
       </c>
       <c r="D23" s="25">
         <v>204</v>
@@ -2527,15 +2528,15 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A24" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="25">
-        <v>2</v>
+      <c r="C24" s="49">
+        <v>3</v>
       </c>
       <c r="D24" s="25">
         <v>204</v>
@@ -2552,15 +2553,15 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A25" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="25">
-        <v>2</v>
+      <c r="C25" s="49">
+        <v>3</v>
       </c>
       <c r="D25" s="25">
         <v>204</v>
@@ -2577,15 +2578,15 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A26" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="25">
-        <v>2</v>
+      <c r="C26" s="49">
+        <v>3</v>
       </c>
       <c r="D26" s="25">
         <v>204</v>
@@ -2617,15 +2618,15 @@
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
     </row>
-    <row r="27" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A27" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="25">
-        <v>2</v>
+      <c r="C27" s="49">
+        <v>3</v>
       </c>
       <c r="D27" s="25">
         <v>204</v>
@@ -2659,15 +2660,15 @@
       <c r="Y27" s="30"/>
       <c r="Z27" s="30"/>
     </row>
-    <row r="28" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A28" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="25">
-        <v>2</v>
+      <c r="C28" s="49">
+        <v>3</v>
       </c>
       <c r="D28" s="25">
         <v>204</v>
@@ -2701,7 +2702,7 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="30"/>
     </row>
-    <row r="29" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="25"/>
@@ -2729,15 +2730,15 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="30" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="25">
-        <v>2</v>
+      <c r="C30" s="49">
+        <v>3</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>55</v>
@@ -2771,15 +2772,15 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
     </row>
-    <row r="31" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A31" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="25">
-        <v>2</v>
+      <c r="C31" s="49">
+        <v>3</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>55</v>
@@ -2813,7 +2814,7 @@
       <c r="Y31" s="30"/>
       <c r="Z31" s="30"/>
     </row>
-    <row r="32" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="25"/>
@@ -2841,15 +2842,15 @@
       <c r="Y32" s="30"/>
       <c r="Z32" s="30"/>
     </row>
-    <row r="33" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A33" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="25">
-        <v>2</v>
+      <c r="C33" s="49">
+        <v>3</v>
       </c>
       <c r="D33" s="60">
         <v>474</v>
@@ -2883,15 +2884,15 @@
       <c r="Y33" s="30"/>
       <c r="Z33" s="30"/>
     </row>
-    <row r="34" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A34" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="25">
-        <v>2</v>
+      <c r="C34" s="49">
+        <v>3</v>
       </c>
       <c r="D34" s="60">
         <v>474</v>
@@ -2925,7 +2926,7 @@
       <c r="Y34" s="30"/>
       <c r="Z34" s="30"/>
     </row>
-    <row r="57" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="17"/>
@@ -2952,7 +2953,7 @@
       <c r="Y57" s="30"/>
       <c r="Z57" s="30"/>
     </row>
-    <row r="58" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="17"/>
@@ -2979,7 +2980,7 @@
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
     </row>
-    <row r="59" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="17"/>
@@ -3006,7 +3007,7 @@
       <c r="Y59" s="30"/>
       <c r="Z59" s="30"/>
     </row>
-    <row r="60" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="17"/>
@@ -3033,7 +3034,7 @@
       <c r="Y60" s="30"/>
       <c r="Z60" s="30"/>
     </row>
-    <row r="61" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="17"/>
@@ -3060,7 +3061,7 @@
       <c r="Y61" s="30"/>
       <c r="Z61" s="30"/>
     </row>
-    <row r="62" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="17"/>
@@ -3087,7 +3088,7 @@
       <c r="Y62" s="30"/>
       <c r="Z62" s="30"/>
     </row>
-    <row r="63" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="17"/>
@@ -3114,7 +3115,7 @@
       <c r="Y63" s="30"/>
       <c r="Z63" s="30"/>
     </row>
-    <row r="64" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="17"/>
@@ -3141,7 +3142,7 @@
       <c r="Y64" s="30"/>
       <c r="Z64" s="30"/>
     </row>
-    <row r="65" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="17"/>
@@ -3168,7 +3169,7 @@
       <c r="Y65" s="30"/>
       <c r="Z65" s="30"/>
     </row>
-    <row r="66" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="17"/>
@@ -3195,7 +3196,7 @@
       <c r="Y66" s="30"/>
       <c r="Z66" s="30"/>
     </row>
-    <row r="67" spans="1:26" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" s="26" customFormat="1" ht="14.25">
       <c r="B67" s="18"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -3222,7 +3223,7 @@
       <c r="Y67" s="30"/>
       <c r="Z67" s="30"/>
     </row>
-    <row r="68" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="17"/>
@@ -3249,7 +3250,7 @@
       <c r="Y68" s="30"/>
       <c r="Z68" s="30"/>
     </row>
-    <row r="69" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="17"/>
@@ -3276,7 +3277,7 @@
       <c r="Y69" s="30"/>
       <c r="Z69" s="30"/>
     </row>
-    <row r="70" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="17"/>
@@ -3303,7 +3304,7 @@
       <c r="Y70" s="30"/>
       <c r="Z70" s="30"/>
     </row>
-    <row r="71" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="17"/>
@@ -3330,7 +3331,7 @@
       <c r="Y71" s="30"/>
       <c r="Z71" s="30"/>
     </row>
-    <row r="72" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="17"/>
@@ -3357,7 +3358,7 @@
       <c r="Y72" s="30"/>
       <c r="Z72" s="30"/>
     </row>
-    <row r="73" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="17"/>
@@ -3384,7 +3385,7 @@
       <c r="Y73" s="30"/>
       <c r="Z73" s="30"/>
     </row>
-    <row r="74" spans="1:26" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" s="26" customFormat="1" ht="14.25">
       <c r="B74" s="18"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -3411,7 +3412,7 @@
       <c r="Y74" s="30"/>
       <c r="Z74" s="30"/>
     </row>
-    <row r="75" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="B75" s="18"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -3437,7 +3438,7 @@
       <c r="Y75" s="30"/>
       <c r="Z75" s="30"/>
     </row>
-    <row r="76" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="F76" s="31"/>
@@ -3457,7 +3458,7 @@
       <c r="Y76" s="30"/>
       <c r="Z76" s="30"/>
     </row>
-    <row r="77" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
       <c r="D77" s="17"/>
@@ -3484,7 +3485,7 @@
       <c r="Y77" s="30"/>
       <c r="Z77" s="30"/>
     </row>
-    <row r="78" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="17"/>
@@ -3511,7 +3512,7 @@
       <c r="Y78" s="30"/>
       <c r="Z78" s="30"/>
     </row>
-    <row r="79" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="D79" s="17"/>
       <c r="F79" s="31"/>
       <c r="K79" s="30"/>
@@ -3531,7 +3532,7 @@
       <c r="Y79" s="30"/>
       <c r="Z79" s="30"/>
     </row>
-    <row r="80" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="D80" s="17"/>
       <c r="F80" s="31"/>
       <c r="K80" s="30"/>
@@ -3551,7 +3552,7 @@
       <c r="Y80" s="30"/>
       <c r="Z80" s="30"/>
     </row>
-    <row r="81" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="D81" s="17"/>
       <c r="F81" s="31"/>
       <c r="K81" s="30"/>
@@ -3571,7 +3572,7 @@
       <c r="Y81" s="30"/>
       <c r="Z81" s="30"/>
     </row>
-    <row r="82" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="D82" s="17"/>
       <c r="F82" s="31"/>
       <c r="K82" s="30"/>
@@ -3591,7 +3592,7 @@
       <c r="Y82" s="30"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="D83" s="17"/>
       <c r="F83" s="31"/>
       <c r="K83" s="30"/>
@@ -3611,7 +3612,7 @@
       <c r="Y83" s="30"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="17"/>
@@ -3638,7 +3639,7 @@
       <c r="Y84" s="30"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="17"/>
@@ -3665,7 +3666,7 @@
       <c r="Y85" s="30"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="17"/>
@@ -3692,7 +3693,7 @@
       <c r="Y86" s="30"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="17"/>
@@ -3719,7 +3720,7 @@
       <c r="Y87" s="30"/>
       <c r="Z87" s="30"/>
     </row>
-    <row r="88" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" s="26" customFormat="1" ht="12.75">
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="17"/>
@@ -3746,7 +3747,7 @@
       <c r="Y88" s="30"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="B89" s="30"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -3772,7 +3773,7 @@
       <c r="Y89" s="30"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
@@ -3799,7 +3800,7 @@
       <c r="Y90" s="30"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="17"/>
@@ -3826,7 +3827,7 @@
       <c r="Y91" s="30"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A92" s="18"/>
       <c r="B92" s="30"/>
       <c r="C92" s="17"/>
@@ -3853,7 +3854,7 @@
       <c r="Y92" s="30"/>
       <c r="Z92" s="30"/>
     </row>
-    <row r="93" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="17"/>
@@ -3880,7 +3881,7 @@
       <c r="Y93" s="30"/>
       <c r="Z93" s="30"/>
     </row>
-    <row r="94" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="17"/>
@@ -3907,7 +3908,7 @@
       <c r="Y94" s="30"/>
       <c r="Z94" s="30"/>
     </row>
-    <row r="95" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" s="26" customFormat="1" ht="15">
       <c r="A95" s="18"/>
       <c r="B95" s="30"/>
       <c r="C95" s="17"/>
@@ -3934,7 +3935,7 @@
       <c r="Y95" s="30"/>
       <c r="Z95" s="30"/>
     </row>
-    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
@@ -3962,7 +3963,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
@@ -3990,7 +3991,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="14.25">
       <c r="A98" s="11"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
@@ -4018,7 +4019,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
@@ -4046,7 +4047,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
@@ -4074,7 +4075,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="14.25">
       <c r="A101" s="11"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
@@ -4102,7 +4103,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -4130,7 +4131,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
@@ -4158,7 +4159,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="14.25">
       <c r="A104" s="11"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
@@ -4186,7 +4187,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
@@ -4214,7 +4215,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
@@ -4242,7 +4243,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="14.25">
       <c r="A107" s="11"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
@@ -4270,7 +4271,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.75">
       <c r="A108" s="11"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
@@ -4298,7 +4299,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.75">
       <c r="A109" s="11"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
@@ -4326,7 +4327,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.75">
       <c r="A110" s="11"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
@@ -4354,7 +4355,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.75">
       <c r="A111" s="11"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
@@ -4382,7 +4383,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.75">
       <c r="A112" s="11"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
@@ -4410,7 +4411,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="14.25">
       <c r="A113" s="11"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
@@ -4438,7 +4439,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="14.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
@@ -4466,7 +4467,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="14.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
@@ -4494,7 +4495,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="14.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
@@ -4522,7 +4523,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="14.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
@@ -4550,7 +4551,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="14.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
@@ -4578,7 +4579,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="14.25">
       <c r="A119" s="11"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
@@ -4606,7 +4607,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="14.25">
       <c r="A120" s="11"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
@@ -4634,7 +4635,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="14.25">
       <c r="A121" s="11"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
@@ -4662,7 +4663,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="14.25">
       <c r="A122" s="11"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
@@ -4690,7 +4691,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="14.25">
       <c r="A123" s="11"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
@@ -4718,7 +4719,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="14.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
@@ -4746,7 +4747,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="14.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
@@ -4774,7 +4775,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="14.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
@@ -4802,7 +4803,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="14.25">
       <c r="A127" s="11"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
@@ -4830,7 +4831,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.75">
       <c r="A128" s="11"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
@@ -4858,7 +4859,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.75">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
@@ -4886,7 +4887,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.75">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -4914,7 +4915,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.75">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
@@ -4942,7 +4943,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12.75">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
@@ -4970,7 +4971,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12.75">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
@@ -4998,7 +4999,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12.75">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -5026,7 +5027,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12.75">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
@@ -5054,7 +5055,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12.75">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
@@ -5082,7 +5083,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12.75">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
@@ -5110,7 +5111,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12.75">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
@@ -5138,7 +5139,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12.75">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
@@ -5166,7 +5167,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="12.75">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
@@ -5194,7 +5195,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="12.75">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
@@ -5222,7 +5223,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="12.75">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
@@ -5250,7 +5251,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="12.75">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
@@ -5278,7 +5279,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="12.75">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
@@ -5306,7 +5307,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="12.75">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
@@ -5334,7 +5335,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="12.75">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
@@ -5362,7 +5363,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="12.75">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
@@ -5390,7 +5391,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="12.75">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
@@ -5418,7 +5419,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12.75">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
@@ -5446,7 +5447,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12.75">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
@@ -5474,7 +5475,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12.75">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
@@ -5502,7 +5503,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12.75">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
@@ -5530,7 +5531,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12.75">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
@@ -5558,7 +5559,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12.75">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
@@ -5586,7 +5587,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12.75">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="6"/>
@@ -5614,7 +5615,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15">
       <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
@@ -5642,7 +5643,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15">
       <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
@@ -5670,7 +5671,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12.75">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="6"/>
@@ -5698,7 +5699,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
@@ -5726,7 +5727,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
@@ -5754,7 +5755,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12.75">
       <c r="A161" s="2"/>
       <c r="B161" s="11"/>
       <c r="C161" s="6"/>
@@ -5782,7 +5783,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15">
       <c r="A162" s="2"/>
       <c r="B162" s="11"/>
       <c r="C162" s="6"/>
@@ -5810,7 +5811,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15">
       <c r="A163" s="2"/>
       <c r="B163" s="11"/>
       <c r="C163" s="6"/>
@@ -5838,7 +5839,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="12.75">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="6"/>
@@ -5866,7 +5867,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15">
       <c r="A165" s="11"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
@@ -5894,7 +5895,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15">
       <c r="A166" s="11"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
@@ -5922,7 +5923,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="12.75">
       <c r="A167" s="11"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -5950,7 +5951,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15">
       <c r="A168" s="2"/>
       <c r="B168" s="11"/>
       <c r="C168" s="6"/>
@@ -5978,7 +5979,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15">
       <c r="A169" s="2"/>
       <c r="B169" s="11"/>
       <c r="C169" s="6"/>
@@ -6006,7 +6007,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="12.75">
       <c r="A170" s="2"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -6034,7 +6035,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15">
       <c r="A171" s="2"/>
       <c r="B171" s="11"/>
       <c r="C171" s="6"/>
@@ -6062,7 +6063,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15">
       <c r="A172" s="2"/>
       <c r="B172" s="11"/>
       <c r="C172" s="6"/>
@@ -6090,7 +6091,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="12.75">
       <c r="A173" s="2"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -6118,7 +6119,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
@@ -6146,7 +6147,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
@@ -6174,7 +6175,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="12.75">
       <c r="A176" s="11"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -6202,7 +6203,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15">
       <c r="A177" s="11"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
@@ -6230,7 +6231,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15">
       <c r="A178" s="11"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
@@ -6258,7 +6259,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="12.75">
       <c r="A179" s="11"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -6286,7 +6287,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
@@ -6314,7 +6315,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
@@ -6342,7 +6343,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="12.75">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -6370,7 +6371,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="12.75">
       <c r="A183" s="2"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -6398,7 +6399,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="12.75">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -6426,7 +6427,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="12.75">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -6454,7 +6455,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="12.75">
       <c r="A186" s="11"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
@@ -6482,7 +6483,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="12.75">
       <c r="A187" s="11"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
@@ -6510,7 +6511,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="12.75">
       <c r="A188" s="11"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
@@ -6538,7 +6539,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="12.75">
       <c r="A189" s="11"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
@@ -6566,7 +6567,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="12.75">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -6594,7 +6595,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15">
       <c r="A191" s="11"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
@@ -6622,7 +6623,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15">
       <c r="A192" s="11"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
@@ -6650,7 +6651,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="12.75">
       <c r="A193" s="11"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
@@ -6678,7 +6679,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="12.75">
       <c r="A194" s="11"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
@@ -6706,7 +6707,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="12.75">
       <c r="A195" s="11"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
@@ -6734,7 +6735,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="12.75">
       <c r="A196" s="11"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
@@ -6762,7 +6763,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="12.75">
       <c r="A197" s="11"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
@@ -6790,7 +6791,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
@@ -6818,7 +6819,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
@@ -6846,7 +6847,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="12.75">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
@@ -6874,7 +6875,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="12.75">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="6"/>
@@ -6902,7 +6903,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="12.75">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="6"/>
@@ -6930,7 +6931,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="12.75">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="6"/>
@@ -6958,7 +6959,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="12.75">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -6986,7 +6987,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="12.75">
       <c r="A205" s="11"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
@@ -7014,7 +7015,7 @@
       <c r="Y205" s="11"/>
       <c r="Z205" s="11"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="12.75">
       <c r="A206" s="11"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
@@ -7042,7 +7043,7 @@
       <c r="Y206" s="11"/>
       <c r="Z206" s="11"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="12.75">
       <c r="A207" s="11"/>
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
@@ -7070,7 +7071,7 @@
       <c r="Y207" s="11"/>
       <c r="Z207" s="11"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="12.75">
       <c r="A208" s="11"/>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
@@ -7098,7 +7099,7 @@
       <c r="Y208" s="11"/>
       <c r="Z208" s="11"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="12.75">
       <c r="A209" s="11"/>
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
@@ -7126,7 +7127,7 @@
       <c r="Y209" s="11"/>
       <c r="Z209" s="11"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="12.75">
       <c r="A210" s="11"/>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
@@ -7154,7 +7155,7 @@
       <c r="Y210" s="11"/>
       <c r="Z210" s="11"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="12.75">
       <c r="A211" s="11"/>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
@@ -7182,7 +7183,7 @@
       <c r="Y211" s="11"/>
       <c r="Z211" s="11"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="12.75">
       <c r="A212" s="11"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -7210,7 +7211,7 @@
       <c r="Y212" s="11"/>
       <c r="Z212" s="11"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="12.75">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -7238,7 +7239,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="12.75">
       <c r="A214" s="2"/>
       <c r="B214" s="11"/>
       <c r="C214" s="6"/>
@@ -7266,7 +7267,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="12.75">
       <c r="A215" s="2"/>
       <c r="B215" s="11"/>
       <c r="C215" s="6"/>
@@ -7294,7 +7295,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="12.75">
       <c r="A216" s="2"/>
       <c r="B216" s="11"/>
       <c r="C216" s="6"/>
@@ -7322,7 +7323,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="12.75">
       <c r="A217" s="2"/>
       <c r="B217" s="11"/>
       <c r="C217" s="6"/>
@@ -7350,7 +7351,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="12.75">
       <c r="A218" s="2"/>
       <c r="B218" s="11"/>
       <c r="C218" s="6"/>
@@ -7378,7 +7379,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="12.75">
       <c r="A219" s="2"/>
       <c r="B219" s="11"/>
       <c r="C219" s="6"/>
@@ -7406,7 +7407,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="12.75">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="3"/>
@@ -7434,7 +7435,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="12.75">
       <c r="A221" s="12"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
@@ -7462,7 +7463,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="12.75">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -7490,7 +7491,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="12.75">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="3"/>
@@ -7518,7 +7519,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="12.75">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="3"/>
@@ -7546,7 +7547,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="12.75">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="3"/>
@@ -7574,7 +7575,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="12.75">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="3"/>
@@ -7602,7 +7603,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="12.75">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="3"/>
@@ -7630,7 +7631,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="12.75">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="3"/>
@@ -7658,7 +7659,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="12.75">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="3"/>
@@ -7686,7 +7687,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="12.75">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="3"/>
@@ -7714,7 +7715,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="12.75">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -7742,7 +7743,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="12.75">
       <c r="A232" s="2"/>
       <c r="B232" s="11"/>
       <c r="C232" s="6"/>
@@ -7770,7 +7771,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="12.75">
       <c r="A233" s="12"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
@@ -7798,7 +7799,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="12.75">
       <c r="A234" s="12"/>
       <c r="B234" s="4"/>
       <c r="C234" s="3"/>
@@ -7826,7 +7827,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="12.75">
       <c r="A235" s="12"/>
       <c r="B235" s="4"/>
       <c r="C235" s="3"/>
@@ -7854,7 +7855,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="12.75">
       <c r="A236" s="12"/>
       <c r="B236" s="4"/>
       <c r="C236" s="3"/>
@@ -7882,7 +7883,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="12.75">
       <c r="A237" s="12"/>
       <c r="B237" s="4"/>
       <c r="C237" s="3"/>
@@ -7910,7 +7911,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="12.75">
       <c r="A238" s="12"/>
       <c r="B238" s="4"/>
       <c r="C238" s="3"/>
@@ -7938,7 +7939,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="12.75">
       <c r="A239" s="12"/>
       <c r="B239" s="4"/>
       <c r="C239" s="3"/>
@@ -7966,7 +7967,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="12.75">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -7994,7 +7995,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="12.75">
       <c r="A241" s="2"/>
       <c r="B241" s="11"/>
       <c r="C241" s="6"/>
@@ -8022,7 +8023,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="12.75">
       <c r="A242" s="12"/>
       <c r="B242" s="4"/>
       <c r="C242" s="3"/>
@@ -8050,7 +8051,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="12.75">
       <c r="A243" s="12"/>
       <c r="B243" s="4"/>
       <c r="C243" s="3"/>
@@ -8078,7 +8079,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="12.75">
       <c r="A244" s="12"/>
       <c r="B244" s="4"/>
       <c r="C244" s="3"/>
@@ -8106,7 +8107,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="12.75">
       <c r="A245" s="12"/>
       <c r="B245" s="4"/>
       <c r="C245" s="3"/>
@@ -8134,7 +8135,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="12.75">
       <c r="A246" s="12"/>
       <c r="B246" s="4"/>
       <c r="C246" s="3"/>
@@ -8162,7 +8163,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="12.75">
       <c r="A247" s="12"/>
       <c r="B247" s="4"/>
       <c r="C247" s="3"/>
@@ -8190,7 +8191,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="12.75">
       <c r="A248" s="12"/>
       <c r="B248" s="4"/>
       <c r="C248" s="3"/>
@@ -8218,7 +8219,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="12.75">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -8246,7 +8247,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="12.75">
       <c r="A250" s="12"/>
       <c r="B250" s="4"/>
       <c r="C250" s="3"/>
@@ -8274,7 +8275,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="12.75">
       <c r="A251" s="12"/>
       <c r="B251" s="4"/>
       <c r="C251" s="3"/>
@@ -8302,7 +8303,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="12.75">
       <c r="A252" s="12"/>
       <c r="B252" s="4"/>
       <c r="C252" s="3"/>
@@ -8330,7 +8331,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="12.75">
       <c r="A253" s="12"/>
       <c r="B253" s="4"/>
       <c r="C253" s="3"/>
@@ -8358,7 +8359,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="12.75">
       <c r="A254" s="12"/>
       <c r="B254" s="4"/>
       <c r="C254" s="3"/>
@@ -8386,7 +8387,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="12.75">
       <c r="A255" s="12"/>
       <c r="B255" s="4"/>
       <c r="C255" s="3"/>
@@ -8414,7 +8415,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="12.75">
       <c r="A256" s="12"/>
       <c r="B256" s="4"/>
       <c r="C256" s="3"/>
@@ -8442,7 +8443,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="12.75">
       <c r="A257" s="12"/>
       <c r="B257" s="4"/>
       <c r="C257" s="3"/>
@@ -8470,7 +8471,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="12.75">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -8498,7 +8499,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="12.75">
       <c r="A259" s="11"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -8526,7 +8527,7 @@
       <c r="Y259" s="11"/>
       <c r="Z259" s="11"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="12.75">
       <c r="A260" s="11"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -8554,7 +8555,7 @@
       <c r="Y260" s="11"/>
       <c r="Z260" s="11"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="12.75">
       <c r="A261" s="11"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -8582,7 +8583,7 @@
       <c r="Y261" s="11"/>
       <c r="Z261" s="11"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="12.75">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -8610,7 +8611,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="12.75">
       <c r="A263" s="2"/>
       <c r="B263" s="11"/>
       <c r="C263" s="6"/>
@@ -8638,7 +8639,7 @@
       <c r="Y263" s="11"/>
       <c r="Z263" s="11"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="12.75">
       <c r="A264" s="2"/>
       <c r="B264" s="11"/>
       <c r="C264" s="6"/>
@@ -8666,7 +8667,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="12.75">
       <c r="A265" s="2"/>
       <c r="B265" s="11"/>
       <c r="C265" s="6"/>
@@ -8694,7 +8695,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="12.75">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -8722,7 +8723,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="12.75">
       <c r="A267" s="11"/>
       <c r="B267" s="2"/>
       <c r="C267" s="6"/>
@@ -8750,7 +8751,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="12.75">
       <c r="A268" s="11"/>
       <c r="B268" s="2"/>
       <c r="C268" s="6"/>
@@ -8778,7 +8779,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="12.75">
       <c r="A269" s="11"/>
       <c r="B269" s="2"/>
       <c r="C269" s="6"/>
@@ -8806,7 +8807,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="12.75">
       <c r="A270" s="11"/>
       <c r="B270" s="2"/>
       <c r="C270" s="6"/>
@@ -8834,7 +8835,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="12.75">
       <c r="A271" s="11"/>
       <c r="B271" s="2"/>
       <c r="C271" s="6"/>
@@ -8862,7 +8863,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="12.75">
       <c r="A272" s="11"/>
       <c r="B272" s="2"/>
       <c r="C272" s="6"/>
@@ -8890,7 +8891,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="12.75">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="6"/>
@@ -8918,7 +8919,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="12.75">
       <c r="A274" s="11"/>
       <c r="B274" s="2"/>
       <c r="C274" s="6"/>
@@ -8946,7 +8947,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="12.75">
       <c r="A275" s="11"/>
       <c r="B275" s="2"/>
       <c r="C275" s="6"/>
@@ -8974,7 +8975,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="12.75">
       <c r="A276" s="11"/>
       <c r="B276" s="2"/>
       <c r="C276" s="6"/>
@@ -9002,7 +9003,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="12.75">
       <c r="A277" s="11"/>
       <c r="B277" s="2"/>
       <c r="C277" s="6"/>
@@ -9030,7 +9031,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="12.75">
       <c r="A278" s="11"/>
       <c r="B278" s="2"/>
       <c r="C278" s="6"/>
@@ -9058,7 +9059,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="12.75">
       <c r="A279" s="11"/>
       <c r="B279" s="2"/>
       <c r="C279" s="6"/>
@@ -9086,7 +9087,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="12.75">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="6"/>
@@ -9114,7 +9115,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="12.75">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="6"/>
@@ -9142,7 +9143,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="12.75">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="6"/>
@@ -9170,7 +9171,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="12.75">
       <c r="A283" s="5"/>
       <c r="B283" s="2"/>
       <c r="C283" s="6"/>
@@ -9198,7 +9199,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="12.75">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="6"/>
@@ -9226,7 +9227,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="12.75">
       <c r="A285" s="11"/>
       <c r="B285" s="2"/>
       <c r="C285" s="6"/>
@@ -9254,7 +9255,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="12.75">
       <c r="A286" s="11"/>
       <c r="B286" s="2"/>
       <c r="C286" s="6"/>
@@ -9282,7 +9283,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="12.75">
       <c r="A287" s="11"/>
       <c r="B287" s="2"/>
       <c r="C287" s="6"/>
@@ -9310,7 +9311,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="12.75">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="6"/>
@@ -9338,7 +9339,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="12.75">
       <c r="A289" s="11"/>
       <c r="B289" s="2"/>
       <c r="C289" s="6"/>
@@ -9366,7 +9367,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="12.75">
       <c r="A290" s="11"/>
       <c r="B290" s="2"/>
       <c r="C290" s="6"/>
@@ -9394,7 +9395,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="12.75">
       <c r="A291" s="11"/>
       <c r="B291" s="2"/>
       <c r="C291" s="6"/>
@@ -9422,7 +9423,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="12.75">
       <c r="A292" s="11"/>
       <c r="B292" s="2"/>
       <c r="C292" s="6"/>
@@ -9450,7 +9451,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="12.75">
       <c r="A293" s="11"/>
       <c r="B293" s="2"/>
       <c r="C293" s="6"/>
@@ -9478,7 +9479,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="12.75">
       <c r="A294" s="11"/>
       <c r="B294" s="2"/>
       <c r="C294" s="6"/>
@@ -9506,7 +9507,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="12.75">
       <c r="A295" s="11"/>
       <c r="B295" s="2"/>
       <c r="C295" s="6"/>
@@ -9534,7 +9535,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="12.75">
       <c r="A296" s="11"/>
       <c r="B296" s="2"/>
       <c r="C296" s="6"/>
@@ -9562,7 +9563,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="12.75">
       <c r="A297" s="11"/>
       <c r="B297" s="2"/>
       <c r="C297" s="6"/>
@@ -9590,7 +9591,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="12.75">
       <c r="A298" s="11"/>
       <c r="B298" s="2"/>
       <c r="C298" s="6"/>
@@ -9618,7 +9619,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="12.75">
       <c r="A299" s="11"/>
       <c r="B299" s="2"/>
       <c r="C299" s="6"/>
@@ -9646,7 +9647,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="12.75">
       <c r="A300" s="11"/>
       <c r="B300" s="2"/>
       <c r="C300" s="6"/>
@@ -9674,7 +9675,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="12.75">
       <c r="A301" s="11"/>
       <c r="B301" s="2"/>
       <c r="C301" s="6"/>
@@ -9702,7 +9703,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="12.75">
       <c r="A302" s="11"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -9730,7 +9731,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="12.75">
       <c r="A303" s="2"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -9758,7 +9759,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="12.75">
       <c r="A304" s="2"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -9786,7 +9787,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="12.75">
       <c r="A305" s="2"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -9814,7 +9815,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="12.75">
       <c r="A306" s="2"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -9842,7 +9843,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="12.75">
       <c r="A307" s="2"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -9870,7 +9871,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="12.75">
       <c r="A308" s="2"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -9898,7 +9899,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="12.75">
       <c r="A309" s="2"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -9926,7 +9927,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="12.75">
       <c r="A310" s="2"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -9954,7 +9955,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="12.75">
       <c r="A311" s="2"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -9982,7 +9983,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="12.75">
       <c r="A312" s="2"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -10010,7 +10011,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="12.75">
       <c r="A313" s="2"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -10038,7 +10039,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="12.75">
       <c r="A314" s="2"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -10066,7 +10067,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="12.75">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -10094,7 +10095,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="12.75">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -10122,7 +10123,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="12.75">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -10150,7 +10151,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="12.75">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -10178,7 +10179,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="12.75">
       <c r="A319" s="2"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -10206,7 +10207,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="12.75">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -10234,7 +10235,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="12.75">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -10262,7 +10263,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="12.75">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -10290,7 +10291,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="12.75">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -10318,7 +10319,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="12.75">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -10346,7 +10347,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="12.75">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -10374,7 +10375,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="12.75">
       <c r="A326" s="2"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -10402,7 +10403,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="12.75">
       <c r="A327" s="2"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -10430,7 +10431,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="12.75">
       <c r="A328" s="2"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -10458,7 +10459,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="12.75">
       <c r="A329" s="2"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -10486,7 +10487,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="12.75">
       <c r="A330" s="2"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -10514,7 +10515,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="12.75">
       <c r="A331" s="2"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -10542,7 +10543,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="12.75">
       <c r="A332" s="2"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -10570,7 +10571,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="12.75">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -10598,7 +10599,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="12.75">
       <c r="A334" s="2"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -10633,21 +10634,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="25" width="10.5703125" style="53" bestFit="1" customWidth="1"/>
     <col min="26" max="38" width="11.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15">
       <c r="A1" s="65">
         <v>-5.1410999999999998E-2</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>1.4474000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15">
       <c r="A2" s="65">
         <v>-5.2628000000000001E-2</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>1.5002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15">
       <c r="A3" s="65">
         <v>-5.3527999999999999E-2</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>1.6670000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15">
       <c r="A4" s="65">
         <v>-5.3511000000000003E-2</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15">
       <c r="A5" s="65">
         <v>-5.1874999999999998E-2</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>1.6663000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15">
       <c r="A6" s="65">
         <v>-5.2708999999999999E-2</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>1.6922E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15">
       <c r="A7" s="65">
         <v>-4.9339000000000001E-2</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>1.7214E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15">
       <c r="A8" s="65">
         <v>-4.8416000000000001E-2</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>1.6704E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15">
       <c r="A9" s="65">
         <v>-4.7210000000000002E-2</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>1.6795999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15">
       <c r="A10" s="65">
         <v>-4.4845000000000003E-2</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>1.6015000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15">
       <c r="A11" s="65">
         <v>-4.4213000000000002E-2</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>1.5689999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15">
       <c r="A12" s="65">
         <v>-4.1450000000000001E-2</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>1.5408E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15">
       <c r="A13" s="65">
         <v>-0.04</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>1.4881E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15">
       <c r="A14" s="65">
         <v>-3.9252000000000002E-2</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15">
       <c r="A15" s="65">
         <v>-3.6485999999999998E-2</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>1.3997000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15">
       <c r="A16" s="65">
         <v>-3.4934E-2</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>1.3191E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15">
       <c r="A17" s="65">
         <v>-3.3471000000000001E-2</v>
       </c>
@@ -12670,7 +12671,7 @@
         <v>1.2664999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15">
       <c r="A18" s="65">
         <v>-3.0973000000000001E-2</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>1.1899E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15">
       <c r="A19" s="65">
         <v>-3.0370000000000001E-2</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>1.1443999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15">
       <c r="A20" s="65">
         <v>-2.8670000000000001E-2</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>1.1010000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15">
       <c r="A21" s="65">
         <v>-2.7008000000000001E-2</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>1.0425E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15">
       <c r="A22" s="65">
         <v>-2.6433000000000002E-2</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>9.979E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="15">
       <c r="A23" s="65">
         <v>-2.4525999999999999E-2</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>9.5219999999999992E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15">
       <c r="A24" s="65">
         <v>-2.3678000000000001E-2</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>9.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15">
       <c r="A25" s="65">
         <v>-2.2699E-2</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>8.5419999999999992E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15">
       <c r="A26" s="65">
         <v>-2.0893999999999999E-2</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>8.2050000000000005E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15">
       <c r="A27" s="65">
         <v>-2.0428999999999999E-2</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>7.6860000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15">
       <c r="A28" s="65">
         <v>-1.9061999999999999E-2</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>7.4149999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15">
       <c r="A29" s="65">
         <v>-1.7776E-2</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>6.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15">
       <c r="A30" s="65">
         <v>-1.7346E-2</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>6.5370000000000003E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15">
       <c r="A31" s="65">
         <v>-1.6291E-2</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>6.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15">
       <c r="A32" s="65">
         <v>-1.5122E-2</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>6.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15">
       <c r="A33" s="65">
         <v>-1.4371E-2</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>5.6889999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15">
       <c r="A34" s="65">
         <v>-1.2937000000000001E-2</v>
       </c>
@@ -14693,7 +14694,7 @@
         <v>5.5319999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15">
       <c r="A35" s="65">
         <v>-1.24E-2</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>5.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15">
       <c r="A36" s="65">
         <v>-1.1819E-2</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>5.3150000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15">
       <c r="A37" s="65">
         <v>-1.1013E-2</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>5.3959999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15">
       <c r="A38" s="65">
         <v>-1.0744E-2</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>5.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15">
       <c r="A39" s="65">
         <v>-1.0274999999999999E-2</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>5.306E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15">
       <c r="A40" s="65">
         <v>-9.9000000000000008E-3</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>5.2969999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15">
       <c r="A41" s="65">
         <v>-9.7009999999999996E-3</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>5.2189999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15">
       <c r="A42" s="65">
         <v>-9.3860000000000002E-3</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>5.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15">
       <c r="A43" s="65">
         <v>-9.2820000000000003E-3</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15">
       <c r="A44" s="65">
         <v>-9.7970000000000002E-3</v>
       </c>
@@ -15883,7 +15884,7 @@
         <v>5.0809999999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15">
       <c r="A45" s="65">
         <v>-9.1039999999999992E-3</v>
       </c>
@@ -16002,7 +16003,7 @@
         <v>5.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15">
       <c r="A46" s="65">
         <v>-8.4239999999999992E-3</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>5.4929999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15">
       <c r="A47" s="65">
         <v>-8.0479999999999996E-3</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>5.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15">
       <c r="A48" s="65">
         <v>-8.038E-3</v>
       </c>
@@ -16359,7 +16360,7 @@
         <v>5.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15">
       <c r="A49" s="65">
         <v>-7.5319999999999996E-3</v>
       </c>
@@ -16478,7 +16479,7 @@
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15">
       <c r="A50" s="65">
         <v>-7.2639999999999996E-3</v>
       </c>
@@ -16597,7 +16598,7 @@
         <v>5.2180000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15">
       <c r="A51" s="65">
         <v>-6.973E-3</v>
       </c>
@@ -16716,7 +16717,7 @@
         <v>5.0569999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15">
       <c r="A52" s="65">
         <v>-6.548E-3</v>
       </c>
@@ -16835,7 +16836,7 @@
         <v>4.9119999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15">
       <c r="A53" s="65">
         <v>-6.3819999999999997E-3</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>4.7070000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15">
       <c r="A54" s="65">
         <v>-6.0559999999999998E-3</v>
       </c>
@@ -17073,7 +17074,7 @@
         <v>4.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15">
       <c r="A55" s="65">
         <v>-5.8430000000000001E-3</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>4.444E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15">
       <c r="A56" s="65">
         <v>-5.5469999999999998E-3</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>4.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15">
       <c r="A57" s="65">
         <v>-5.3969999999999999E-3</v>
       </c>
@@ -17430,7 +17431,7 @@
         <v>4.0670000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15">
       <c r="A58" s="65">
         <v>-5.2490000000000002E-3</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>3.954E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15">
       <c r="A59" s="65">
         <v>-4.9909999999999998E-3</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>3.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15">
       <c r="A60" s="65">
         <v>-4.8440000000000002E-3</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>3.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15">
       <c r="A61" s="65">
         <v>-4.7609999999999996E-3</v>
       </c>
@@ -17906,7 +17907,7 @@
         <v>3.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15">
       <c r="A62" s="65">
         <v>-4.4949999999999999E-3</v>
       </c>
@@ -18025,7 +18026,7 @@
         <v>3.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15">
       <c r="A63" s="65">
         <v>-4.235E-3</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>3.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15">
       <c r="A64" s="65">
         <v>-4.0889999999999998E-3</v>
       </c>
@@ -18263,7 +18264,7 @@
         <v>3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15">
       <c r="A65" s="65">
         <v>-3.9830000000000004E-3</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15">
       <c r="A66" s="65">
         <v>-3.6470000000000001E-3</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>2.66E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15">
       <c r="A67" s="65">
         <v>-3.4589999999999998E-3</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>2.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15">
       <c r="A68" s="65">
         <v>-3.261E-3</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>2.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15">
       <c r="A69" s="65">
         <v>-2.506E-3</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>1.9970000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15">
       <c r="A70" s="65">
         <v>-2.4529999999999999E-3</v>
       </c>
@@ -18977,7 +18978,7 @@
         <v>1.8209999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15">
       <c r="A71" s="65">
         <v>-2.1020000000000001E-3</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>1.6930000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15">
       <c r="A72" s="65">
         <v>-1.3990000000000001E-3</v>
       </c>
@@ -19215,7 +19216,7 @@
         <v>1.503E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15">
       <c r="A73" s="65">
         <v>-1.621E-3</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>1.482E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15">
       <c r="A74" s="65">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -19453,7 +19454,7 @@
         <v>1.488E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15">
       <c r="A75" s="65">
         <v>-9.5699999999999995E-4</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>1.5089999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15">
       <c r="A76" s="65">
         <v>-1.4859999999999999E-3</v>
       </c>
@@ -19691,7 +19692,7 @@
         <v>1.5629999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15">
       <c r="A77" s="65">
         <v>-3.6299999999999999E-4</v>
       </c>
@@ -19810,7 +19811,7 @@
         <v>1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15">
       <c r="A78" s="65">
         <v>-9.4399999999999996E-4</v>
       </c>
@@ -19929,7 +19930,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15">
       <c r="A79" s="65">
         <v>-1.24E-3</v>
       </c>
@@ -20048,7 +20049,7 @@
         <v>1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15">
       <c r="A80" s="65">
         <v>-3.9399999999999998E-4</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15">
       <c r="A81" s="65">
         <v>-1.2999999999999999E-3</v>
       </c>
@@ -20286,7 +20287,7 @@
         <v>1.7390000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15">
       <c r="A82" s="65">
         <v>-1.8680000000000001E-3</v>
       </c>
@@ -20405,7 +20406,7 @@
         <v>1.6360000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15">
       <c r="A83" s="65">
         <v>-2.8410000000000002E-3</v>
       </c>
@@ -20530,14 +20531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="24" width="10.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9.5703125" style="53" bestFit="1" customWidth="1"/>
@@ -20545,7 +20546,7 @@
     <col min="38" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15">
       <c r="A1" s="65">
         <v>-3.7462000000000002E-2</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15">
       <c r="A2" s="65">
         <v>-3.6052000000000001E-2</v>
       </c>
@@ -20783,7 +20784,7 @@
         <v>-1.519E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15">
       <c r="A3" s="65">
         <v>-3.3577000000000003E-2</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>-3.6110000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15">
       <c r="A4" s="65">
         <v>-2.844E-2</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>-6.2129999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15">
       <c r="A5" s="65">
         <v>-2.2744E-2</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>-7.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15">
       <c r="A6" s="65">
         <v>-1.8880000000000001E-2</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>-9.2180000000000005E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15">
       <c r="A7" s="65">
         <v>-1.541E-2</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>-9.8180000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15">
       <c r="A8" s="65">
         <v>-1.2751999999999999E-2</v>
       </c>
@@ -21497,7 +21498,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15">
       <c r="A9" s="65">
         <v>-1.1493E-2</v>
       </c>
@@ -21616,7 +21617,7 @@
         <v>-9.306E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15">
       <c r="A10" s="65">
         <v>-1.0059E-2</v>
       </c>
@@ -21735,7 +21736,7 @@
         <v>-8.7180000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15">
       <c r="A11" s="65">
         <v>-9.0779999999999993E-3</v>
       </c>
@@ -21854,7 +21855,7 @@
         <v>-8.0649999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15">
       <c r="A12" s="65">
         <v>-8.6269999999999993E-3</v>
       </c>
@@ -21973,7 +21974,7 @@
         <v>-7.3039999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15">
       <c r="A13" s="65">
         <v>-7.8659999999999997E-3</v>
       </c>
@@ -22092,7 +22093,7 @@
         <v>-6.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15">
       <c r="A14" s="65">
         <v>-7.9260000000000008E-3</v>
       </c>
@@ -22211,7 +22212,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15">
       <c r="A15" s="65">
         <v>-7.7060000000000002E-3</v>
       </c>
@@ -22330,7 +22331,7 @@
         <v>-5.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15">
       <c r="A16" s="65">
         <v>-7.4400000000000004E-3</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>-5.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15">
       <c r="A17" s="65">
         <v>-7.2639999999999996E-3</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>-4.8859999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15">
       <c r="A18" s="65">
         <v>-6.6290000000000003E-3</v>
       </c>
@@ -22687,7 +22688,7 @@
         <v>-4.627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15">
       <c r="A19" s="65">
         <v>-6.1069999999999996E-3</v>
       </c>
@@ -22806,7 +22807,7 @@
         <v>-4.4609999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15">
       <c r="A20" s="65">
         <v>-6.1700000000000001E-3</v>
       </c>
@@ -22925,7 +22926,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15">
       <c r="A21" s="65">
         <v>-5.9080000000000001E-3</v>
       </c>
@@ -23044,7 +23045,7 @@
         <v>-4.1130000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15">
       <c r="A22" s="65">
         <v>-6.0790000000000002E-3</v>
       </c>
@@ -23163,7 +23164,7 @@
         <v>-3.9810000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="15">
       <c r="A23" s="65">
         <v>-6.3879999999999996E-3</v>
       </c>
@@ -23282,7 +23283,7 @@
         <v>-3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15">
       <c r="A24" s="65">
         <v>-6.4099999999999999E-3</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>-3.6419999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15">
       <c r="A25" s="65">
         <v>-6.496E-3</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>-3.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="15">
       <c r="A26" s="65">
         <v>-6.483E-3</v>
       </c>
@@ -23639,7 +23640,7 @@
         <v>-3.5360000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="15">
       <c r="A27" s="65">
         <v>-6.4359999999999999E-3</v>
       </c>
@@ -23758,7 +23759,7 @@
         <v>-3.5820000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15">
       <c r="A28" s="65">
         <v>-6.7730000000000004E-3</v>
       </c>
@@ -23877,7 +23878,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15">
       <c r="A29" s="65">
         <v>-6.9969999999999997E-3</v>
       </c>
@@ -23996,7 +23997,7 @@
         <v>-3.5590000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="15">
       <c r="A30" s="65">
         <v>-6.6680000000000003E-3</v>
       </c>
@@ -24115,7 +24116,7 @@
         <v>-3.627E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15">
       <c r="A31" s="65">
         <v>-6.4910000000000002E-3</v>
       </c>
@@ -24234,7 +24235,7 @@
         <v>-3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15">
       <c r="A32" s="65">
         <v>-6.0460000000000002E-3</v>
       </c>
@@ -24353,7 +24354,7 @@
         <v>-3.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="15">
       <c r="A33" s="65">
         <v>-5.8809999999999999E-3</v>
       </c>
@@ -24472,7 +24473,7 @@
         <v>-4.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="15">
       <c r="A34" s="65">
         <v>-5.5799999999999999E-3</v>
       </c>
@@ -24591,7 +24592,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="15">
       <c r="A35" s="65">
         <v>-5.176E-3</v>
       </c>
@@ -24710,7 +24711,7 @@
         <v>-4.0930000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="15">
       <c r="A36" s="65">
         <v>-4.9659999999999999E-3</v>
       </c>
@@ -24829,7 +24830,7 @@
         <v>-3.9370000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="15">
       <c r="A37" s="65">
         <v>-4.6490000000000004E-3</v>
       </c>
@@ -24948,7 +24949,7 @@
         <v>-3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="15">
       <c r="A38" s="65">
         <v>-4.7679999999999997E-3</v>
       </c>
@@ -25067,7 +25068,7 @@
         <v>-3.0119999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="15">
       <c r="A39" s="65">
         <v>-5.019E-3</v>
       </c>
@@ -25186,7 +25187,7 @@
         <v>-2.3739999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="15">
       <c r="A40" s="65">
         <v>-5.0419999999999996E-3</v>
       </c>
@@ -25305,7 +25306,7 @@
         <v>-1.6980000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="15">
       <c r="A41" s="65">
         <v>-5.3030000000000004E-3</v>
       </c>
@@ -25424,7 +25425,7 @@
         <v>-1.181E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="15">
       <c r="A42" s="65">
         <v>-5.6730000000000001E-3</v>
       </c>
@@ -25543,7 +25544,7 @@
         <v>-6.9099999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15">
       <c r="A43" s="65">
         <v>-5.7780000000000001E-3</v>
       </c>
@@ -25662,7 +25663,7 @@
         <v>-3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="15">
       <c r="A44" s="65">
         <v>-6.2680000000000001E-3</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>-3.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="15">
       <c r="A45" s="65">
         <v>-7.476E-3</v>
       </c>
@@ -25900,7 +25901,7 @@
         <v>2.104E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="15">
       <c r="A46" s="65">
         <v>-7.5620000000000001E-3</v>
       </c>
@@ -26019,7 +26020,7 @@
         <v>2.3509999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="15">
       <c r="A47" s="65">
         <v>-7.4739999999999997E-3</v>
       </c>
@@ -26138,7 +26139,7 @@
         <v>2.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="15">
       <c r="A48" s="65">
         <v>-7.3680000000000004E-3</v>
       </c>
@@ -26257,7 +26258,7 @@
         <v>2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="15">
       <c r="A49" s="65">
         <v>-7.2680000000000002E-3</v>
       </c>
@@ -26376,7 +26377,7 @@
         <v>2.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="15">
       <c r="A50" s="65">
         <v>-7.0400000000000003E-3</v>
       </c>
@@ -26495,7 +26496,7 @@
         <v>2.794E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="15">
       <c r="A51" s="65">
         <v>-6.9129999999999999E-3</v>
       </c>
@@ -26614,7 +26615,7 @@
         <v>2.699E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="15">
       <c r="A52" s="65">
         <v>-6.7450000000000001E-3</v>
       </c>
@@ -26733,7 +26734,7 @@
         <v>2.6610000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="15">
       <c r="A53" s="65">
         <v>-6.6499999999999997E-3</v>
       </c>
@@ -26852,7 +26853,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="15">
       <c r="A54" s="65">
         <v>-6.5259999999999997E-3</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>2.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="15">
       <c r="A55" s="65">
         <v>-6.319E-3</v>
       </c>
@@ -27090,7 +27091,7 @@
         <v>2.3310000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="15">
       <c r="A56" s="65">
         <v>-6.2449999999999997E-3</v>
       </c>
@@ -27209,7 +27210,7 @@
         <v>2.1949999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="15">
       <c r="A57" s="65">
         <v>-6.1310000000000002E-3</v>
       </c>
@@ -27328,7 +27329,7 @@
         <v>2.0049999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="15">
       <c r="A58" s="65">
         <v>-5.9379999999999997E-3</v>
       </c>
@@ -27447,7 +27448,7 @@
         <v>1.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="15">
       <c r="A59" s="65">
         <v>-5.9890000000000004E-3</v>
       </c>
@@ -27566,7 +27567,7 @@
         <v>1.6739999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="15">
       <c r="A60" s="65">
         <v>-5.8269999999999997E-3</v>
       </c>
@@ -27685,7 +27686,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="15">
       <c r="A61" s="65">
         <v>-5.6839999999999998E-3</v>
       </c>
@@ -27804,7 +27805,7 @@
         <v>1.3060000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="15">
       <c r="A62" s="65">
         <v>-5.5669999999999999E-3</v>
       </c>
@@ -27923,7 +27924,7 @@
         <v>1.178E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="15">
       <c r="A63" s="65">
         <v>-5.293E-3</v>
       </c>
@@ -28042,7 +28043,7 @@
         <v>9.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="15">
       <c r="A64" s="65">
         <v>-5.1089999999999998E-3</v>
       </c>
@@ -28161,7 +28162,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15">
       <c r="A65" s="65">
         <v>-4.849E-3</v>
       </c>
@@ -28280,7 +28281,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15">
       <c r="A66" s="65">
         <v>-4.3210000000000002E-3</v>
       </c>
@@ -28399,7 +28400,7 @@
         <v>2.52E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15">
       <c r="A67" s="65">
         <v>-4.4910000000000002E-3</v>
       </c>
@@ -28518,7 +28519,7 @@
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15">
       <c r="A68" s="65">
         <v>-4.2199999999999998E-3</v>
       </c>
@@ -28637,7 +28638,7 @@
         <v>-1.84E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15">
       <c r="A69" s="65">
         <v>-4.0210000000000003E-3</v>
       </c>
@@ -28756,7 +28757,7 @@
         <v>-4.3899999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15">
       <c r="A70" s="65">
         <v>-3.8509999999999998E-3</v>
       </c>
@@ -28875,7 +28876,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15">
       <c r="A71" s="65">
         <v>-3.5309999999999999E-3</v>
       </c>
@@ -28994,7 +28995,7 @@
         <v>-7.4600000000000003E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15">
       <c r="A72" s="65">
         <v>-3.3899999999999998E-3</v>
       </c>
@@ -29113,7 +29114,7 @@
         <v>-8.0599999999999997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15">
       <c r="A73" s="65">
         <v>-3.284E-3</v>
       </c>
@@ -29232,7 +29233,7 @@
         <v>-7.0600000000000003E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15">
       <c r="A74" s="65">
         <v>-3.0469999999999998E-3</v>
       </c>
@@ -29351,7 +29352,7 @@
         <v>-5.2499999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15">
       <c r="A75" s="65">
         <v>-3.068E-3</v>
       </c>
@@ -29470,7 +29471,7 @@
         <v>-2.22E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15">
       <c r="A76" s="65">
         <v>-3.1979999999999999E-3</v>
       </c>
@@ -29589,7 +29590,7 @@
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15">
       <c r="A77" s="65">
         <v>-3.3509999999999998E-3</v>
       </c>
@@ -29708,7 +29709,7 @@
         <v>6.6100000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15">
       <c r="A78" s="65">
         <v>-3.565E-3</v>
       </c>
@@ -29827,7 +29828,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15">
       <c r="A79" s="65">
         <v>-3.4989999999999999E-3</v>
       </c>
@@ -29946,7 +29947,7 @@
         <v>1.351E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15">
       <c r="A80" s="65">
         <v>-3.6089999999999998E-3</v>
       </c>
@@ -30065,7 +30066,7 @@
         <v>1.5250000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="15">
       <c r="A81" s="65">
         <v>-3.872E-3</v>
       </c>
@@ -30184,7 +30185,7 @@
         <v>1.536E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="15">
       <c r="A82" s="65">
         <v>-3.9810000000000002E-3</v>
       </c>
@@ -30303,7 +30304,7 @@
         <v>1.41E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="15">
       <c r="A83" s="65">
         <v>-5.2859999999999999E-3</v>
       </c>

--- a/RS01SLBS/Omaha_Cal_Info_RS01SLBS_00003.xlsx
+++ b/RS01SLBS/Omaha_Cal_Info_RS01SLBS_00003.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9615"/>
@@ -12,7 +12,7 @@
     <sheet name="204_CC_tcarray" sheetId="3" r:id="rId3"/>
     <sheet name="204_CC_taarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -216,13 +216,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1043,6 +1043,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1056,10 +1124,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="454545"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FAFAFA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1126,6 +1194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1160,6 +1229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1335,14 +1405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="53" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="53"/>
@@ -1355,7 +1425,7 @@
     <col min="15" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1475,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1504,9 @@
       <c r="J2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="54">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>44.509700000000002</v>
@@ -1442,9 +1514,6 @@
       <c r="M2" s="54">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-125.40525</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>52</v>
       </c>
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
@@ -1459,7 +1528,7 @@
       <c r="Y2" s="55"/>
       <c r="Z2" s="55"/>
     </row>
-    <row r="3" spans="1:26" s="34" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>43</v>
       </c>
@@ -1488,7 +1557,9 @@
       <c r="J3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="51" t="s">
+        <v>58</v>
+      </c>
       <c r="L3" s="56">
         <f>((LEFT(G3,(FIND("°",G3,1)-1)))+(MID(G3,(FIND("°",G3,1)+1),(FIND("'",G3,1))-(FIND("°",G3,1)+1))/60))*(IF(RIGHT(G3,1)="N",1,-1))</f>
         <v>44.515266666666669</v>
@@ -1496,9 +1567,6 @@
       <c r="M3" s="56">
         <f>((LEFT(H3,(FIND("°",H3,1)-1)))+(MID(H3,(FIND("°",H3,1)+1),(FIND("'",H3,1))-(FIND("°",H3,1)+1))/60))*(IF(RIGHT(H3,1)="E",1,-1))</f>
         <v>-125.38986666666666</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>58</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -1513,7 +1581,7 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="25"/>
@@ -1528,7 +1596,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
@@ -1540,7 +1608,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
@@ -1552,7 +1620,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="17"/>
@@ -1564,7 +1632,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="17"/>
@@ -1576,239 +1644,239 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
     </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
     </row>
-    <row r="13" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="17" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="18" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="19" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="20" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="21" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="22" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="23" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="24" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="25" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="26" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="27" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="28" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="29" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="30" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="31" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="32" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="33" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="34" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="35" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="36" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="37" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="38" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="39" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="40" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="41" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="42" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="43" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="44" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="45" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="46" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="47" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="48" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="49" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="50" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="51" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="52" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="53" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="54" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="55" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="56" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="57" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="58" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="59" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="60" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="61" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="62" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="63" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="64" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="65" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="66" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="67" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="68" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="69" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="70" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="71" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="72" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="73" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="74" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="75" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="76" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="77" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="78" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="79" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="80" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="81" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="82" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="83" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="84" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="85" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="86" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="87" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="88" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="89" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="90" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="91" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="92" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="93" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="94" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="95" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="96" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="97" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="98" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="99" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="100" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="101" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="102" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="103" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="104" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="105" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="106" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="107" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="108" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="109" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="110" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="111" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="112" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="113" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="114" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="115" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="116" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="117" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="118" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="119" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="120" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="121" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="122" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="123" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="124" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="125" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="126" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="127" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="128" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="129" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="130" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="131" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="132" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="133" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="134" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="135" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="136" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="137" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="138" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="139" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="140" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="141" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="142" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="143" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="144" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="145" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="146" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="147" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="148" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="149" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="150" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="151" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="152" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="153" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="154" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="155" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="156" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="157" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="158" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="159" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="160" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="161" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="162" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="163" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="164" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="165" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="166" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="167" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="168" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="169" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="170" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="171" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="172" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="173" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="174" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="175" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="176" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="177" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="178" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="179" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="180" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="181" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="182" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="183" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="184" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="185" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="186" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="187" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="188" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="189" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="190" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="191" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="192" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="193" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="194" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="195" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="196" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="197" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="198" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="199" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="200" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="201" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="202" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="203" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="204" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="205" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="206" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="207" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="208" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="209" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="210" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="211" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="212" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="213" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="214" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="215" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="216" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="217" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="218" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="219" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="220" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="221" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="222" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="223" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="224" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="225" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="226" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="227" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="228" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="229" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="230" s="26" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="231" s="26" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1816,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1824,7 +1892,7 @@
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="53"/>
@@ -1836,7 +1904,7 @@
     <col min="8" max="16384" width="14.42578125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="26" customFormat="1" ht="30">
+    <row r="1" spans="1:26" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1927,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="25"/>
@@ -1887,7 +1955,7 @@
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
     </row>
-    <row r="3" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="3" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1993,7 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="30"/>
     </row>
-    <row r="4" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="4" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
@@ -1963,7 +2031,7 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
     </row>
-    <row r="5" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="5" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2069,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
     </row>
-    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="41"/>
       <c r="C6" s="25"/>
@@ -2012,7 +2080,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="7" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2105,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="8" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="8" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2147,7 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
     </row>
-    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="41"/>
       <c r="C9" s="25"/>
@@ -2107,7 +2175,7 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
     </row>
-    <row r="10" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="10" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>49</v>
       </c>
@@ -2143,7 +2211,7 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
     </row>
-    <row r="11" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="11" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="19"/>
       <c r="C11" s="25"/>
@@ -2154,7 +2222,7 @@
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="12" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>44</v>
       </c>
@@ -2196,7 +2264,7 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
     </row>
-    <row r="13" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="13" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="25"/>
@@ -2224,7 +2292,7 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="14" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2334,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
     </row>
-    <row r="15" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="15" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2376,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
     </row>
-    <row r="16" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>45</v>
       </c>
@@ -2350,7 +2418,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
     </row>
-    <row r="17" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2460,7 @@
       <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
     </row>
-    <row r="18" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>45</v>
       </c>
@@ -2417,7 +2485,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>45</v>
       </c>
@@ -2442,7 +2510,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="25"/>
@@ -2453,7 +2521,7 @@
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>46</v>
       </c>
@@ -2478,7 +2546,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +2571,7 @@
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>46</v>
       </c>
@@ -2528,7 +2596,7 @@
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>46</v>
       </c>
@@ -2553,7 +2621,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +2646,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>46</v>
       </c>
@@ -2618,7 +2686,7 @@
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
     </row>
-    <row r="27" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>46</v>
       </c>
@@ -2660,7 +2728,7 @@
       <c r="Y27" s="30"/>
       <c r="Z27" s="30"/>
     </row>
-    <row r="28" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>46</v>
       </c>
@@ -2702,7 +2770,7 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="30"/>
     </row>
-    <row r="29" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="25"/>
@@ -2730,7 +2798,7 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="30" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>47</v>
       </c>
@@ -2772,7 +2840,7 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
     </row>
-    <row r="31" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>47</v>
       </c>
@@ -2814,7 +2882,7 @@
       <c r="Y31" s="30"/>
       <c r="Z31" s="30"/>
     </row>
-    <row r="32" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="25"/>
@@ -2842,7 +2910,7 @@
       <c r="Y32" s="30"/>
       <c r="Z32" s="30"/>
     </row>
-    <row r="33" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>48</v>
       </c>
@@ -2884,7 +2952,7 @@
       <c r="Y33" s="30"/>
       <c r="Z33" s="30"/>
     </row>
-    <row r="34" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="34" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>48</v>
       </c>
@@ -2926,7 +2994,7 @@
       <c r="Y34" s="30"/>
       <c r="Z34" s="30"/>
     </row>
-    <row r="57" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="17"/>
@@ -2953,7 +3021,7 @@
       <c r="Y57" s="30"/>
       <c r="Z57" s="30"/>
     </row>
-    <row r="58" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="17"/>
@@ -2980,7 +3048,7 @@
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
     </row>
-    <row r="59" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="17"/>
@@ -3007,7 +3075,7 @@
       <c r="Y59" s="30"/>
       <c r="Z59" s="30"/>
     </row>
-    <row r="60" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="17"/>
@@ -3034,7 +3102,7 @@
       <c r="Y60" s="30"/>
       <c r="Z60" s="30"/>
     </row>
-    <row r="61" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="17"/>
@@ -3061,7 +3129,7 @@
       <c r="Y61" s="30"/>
       <c r="Z61" s="30"/>
     </row>
-    <row r="62" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="17"/>
@@ -3088,7 +3156,7 @@
       <c r="Y62" s="30"/>
       <c r="Z62" s="30"/>
     </row>
-    <row r="63" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="63" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="17"/>
@@ -3115,7 +3183,7 @@
       <c r="Y63" s="30"/>
       <c r="Z63" s="30"/>
     </row>
-    <row r="64" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="64" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="17"/>
@@ -3142,7 +3210,7 @@
       <c r="Y64" s="30"/>
       <c r="Z64" s="30"/>
     </row>
-    <row r="65" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="65" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="17"/>
@@ -3169,7 +3237,7 @@
       <c r="Y65" s="30"/>
       <c r="Z65" s="30"/>
     </row>
-    <row r="66" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="66" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="17"/>
@@ -3196,7 +3264,7 @@
       <c r="Y66" s="30"/>
       <c r="Z66" s="30"/>
     </row>
-    <row r="67" spans="1:26" s="26" customFormat="1" ht="14.25">
+    <row r="67" spans="1:26" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -3223,7 +3291,7 @@
       <c r="Y67" s="30"/>
       <c r="Z67" s="30"/>
     </row>
-    <row r="68" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="68" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="17"/>
@@ -3250,7 +3318,7 @@
       <c r="Y68" s="30"/>
       <c r="Z68" s="30"/>
     </row>
-    <row r="69" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="69" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="17"/>
@@ -3277,7 +3345,7 @@
       <c r="Y69" s="30"/>
       <c r="Z69" s="30"/>
     </row>
-    <row r="70" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="70" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="17"/>
@@ -3304,7 +3372,7 @@
       <c r="Y70" s="30"/>
       <c r="Z70" s="30"/>
     </row>
-    <row r="71" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="71" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="17"/>
@@ -3331,7 +3399,7 @@
       <c r="Y71" s="30"/>
       <c r="Z71" s="30"/>
     </row>
-    <row r="72" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="72" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="17"/>
@@ -3358,7 +3426,7 @@
       <c r="Y72" s="30"/>
       <c r="Z72" s="30"/>
     </row>
-    <row r="73" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="73" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="17"/>
@@ -3385,7 +3453,7 @@
       <c r="Y73" s="30"/>
       <c r="Z73" s="30"/>
     </row>
-    <row r="74" spans="1:26" s="26" customFormat="1" ht="14.25">
+    <row r="74" spans="1:26" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -3412,7 +3480,7 @@
       <c r="Y74" s="30"/>
       <c r="Z74" s="30"/>
     </row>
-    <row r="75" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="75" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -3438,7 +3506,7 @@
       <c r="Y75" s="30"/>
       <c r="Z75" s="30"/>
     </row>
-    <row r="76" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="76" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="F76" s="31"/>
@@ -3458,7 +3526,7 @@
       <c r="Y76" s="30"/>
       <c r="Z76" s="30"/>
     </row>
-    <row r="77" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="77" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
       <c r="D77" s="17"/>
@@ -3485,7 +3553,7 @@
       <c r="Y77" s="30"/>
       <c r="Z77" s="30"/>
     </row>
-    <row r="78" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="78" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="17"/>
@@ -3512,7 +3580,7 @@
       <c r="Y78" s="30"/>
       <c r="Z78" s="30"/>
     </row>
-    <row r="79" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="79" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D79" s="17"/>
       <c r="F79" s="31"/>
       <c r="K79" s="30"/>
@@ -3532,7 +3600,7 @@
       <c r="Y79" s="30"/>
       <c r="Z79" s="30"/>
     </row>
-    <row r="80" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="80" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D80" s="17"/>
       <c r="F80" s="31"/>
       <c r="K80" s="30"/>
@@ -3552,7 +3620,7 @@
       <c r="Y80" s="30"/>
       <c r="Z80" s="30"/>
     </row>
-    <row r="81" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="81" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D81" s="17"/>
       <c r="F81" s="31"/>
       <c r="K81" s="30"/>
@@ -3572,7 +3640,7 @@
       <c r="Y81" s="30"/>
       <c r="Z81" s="30"/>
     </row>
-    <row r="82" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="82" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D82" s="17"/>
       <c r="F82" s="31"/>
       <c r="K82" s="30"/>
@@ -3592,7 +3660,7 @@
       <c r="Y82" s="30"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="83" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D83" s="17"/>
       <c r="F83" s="31"/>
       <c r="K83" s="30"/>
@@ -3612,7 +3680,7 @@
       <c r="Y83" s="30"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="84" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
       <c r="D84" s="17"/>
@@ -3639,7 +3707,7 @@
       <c r="Y84" s="30"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="85" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
       <c r="D85" s="17"/>
@@ -3666,7 +3734,7 @@
       <c r="Y85" s="30"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="86" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
       <c r="D86" s="17"/>
@@ -3693,7 +3761,7 @@
       <c r="Y86" s="30"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="87" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
       <c r="D87" s="17"/>
@@ -3720,7 +3788,7 @@
       <c r="Y87" s="30"/>
       <c r="Z87" s="30"/>
     </row>
-    <row r="88" spans="1:26" s="26" customFormat="1" ht="12.75">
+    <row r="88" spans="1:26" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
       <c r="D88" s="17"/>
@@ -3747,7 +3815,7 @@
       <c r="Y88" s="30"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="89" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="30"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -3773,7 +3841,7 @@
       <c r="Y89" s="30"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="90" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="17"/>
@@ -3800,7 +3868,7 @@
       <c r="Y90" s="30"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="91" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="17"/>
@@ -3827,7 +3895,7 @@
       <c r="Y91" s="30"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="92" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
       <c r="B92" s="30"/>
       <c r="C92" s="17"/>
@@ -3854,7 +3922,7 @@
       <c r="Y92" s="30"/>
       <c r="Z92" s="30"/>
     </row>
-    <row r="93" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="93" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="17"/>
@@ -3881,7 +3949,7 @@
       <c r="Y93" s="30"/>
       <c r="Z93" s="30"/>
     </row>
-    <row r="94" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="94" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="17"/>
@@ -3908,7 +3976,7 @@
       <c r="Y94" s="30"/>
       <c r="Z94" s="30"/>
     </row>
-    <row r="95" spans="1:26" s="26" customFormat="1" ht="15">
+    <row r="95" spans="1:26" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
       <c r="B95" s="30"/>
       <c r="C95" s="17"/>
@@ -3935,7 +4003,7 @@
       <c r="Y95" s="30"/>
       <c r="Z95" s="30"/>
     </row>
-    <row r="96" spans="1:26" ht="15">
+    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
@@ -3963,7 +4031,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="15">
+    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
@@ -3991,7 +4059,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25">
+    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
@@ -4019,7 +4087,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="15">
+    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
@@ -4047,7 +4115,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="15">
+    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
@@ -4075,7 +4143,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25">
+    <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
@@ -4103,7 +4171,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="15">
+    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -4131,7 +4199,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="15">
+    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
@@ -4159,7 +4227,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25">
+    <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
@@ -4187,7 +4255,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="15">
+    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
@@ -4215,7 +4283,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="15">
+    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
@@ -4243,7 +4311,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="14.25">
+    <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
@@ -4271,7 +4339,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75">
+    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
@@ -4299,7 +4367,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75">
+    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
@@ -4327,7 +4395,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75">
+    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
@@ -4355,7 +4423,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75">
+    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
@@ -4383,7 +4451,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75">
+    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
@@ -4411,7 +4479,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="14.25">
+    <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
@@ -4439,7 +4507,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="14.25">
+    <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
@@ -4467,7 +4535,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="14.25">
+    <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
@@ -4495,7 +4563,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="14.25">
+    <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
@@ -4523,7 +4591,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="14.25">
+    <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
@@ -4551,7 +4619,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="14.25">
+    <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
@@ -4579,7 +4647,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="14.25">
+    <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
@@ -4607,7 +4675,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="14.25">
+    <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
@@ -4635,7 +4703,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="14.25">
+    <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
@@ -4663,7 +4731,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="14.25">
+    <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
@@ -4691,7 +4759,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="14.25">
+    <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="11"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
@@ -4719,7 +4787,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="14.25">
+    <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
@@ -4747,7 +4815,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="14.25">
+    <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
@@ -4775,7 +4843,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="14.25">
+    <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
@@ -4803,7 +4871,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="14.25">
+    <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
@@ -4831,7 +4899,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75">
+    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
@@ -4859,7 +4927,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75">
+    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
@@ -4887,7 +4955,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75">
+    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -4915,7 +4983,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75">
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
@@ -4943,7 +5011,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75">
+    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
@@ -4971,7 +5039,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75">
+    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
@@ -4999,7 +5067,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75">
+    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -5027,7 +5095,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75">
+    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
@@ -5055,7 +5123,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75">
+    <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
@@ -5083,7 +5151,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75">
+    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
@@ -5111,7 +5179,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75">
+    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
@@ -5139,7 +5207,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75">
+    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
@@ -5167,7 +5235,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75">
+    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
@@ -5195,7 +5263,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75">
+    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
@@ -5223,7 +5291,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75">
+    <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
@@ -5251,7 +5319,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75">
+    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
@@ -5279,7 +5347,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75">
+    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
@@ -5307,7 +5375,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75">
+    <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
@@ -5335,7 +5403,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75">
+    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
@@ -5363,7 +5431,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75">
+    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
@@ -5391,7 +5459,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75">
+    <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
@@ -5419,7 +5487,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75">
+    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
@@ -5447,7 +5515,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75">
+    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
@@ -5475,7 +5543,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75">
+    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
@@ -5503,7 +5571,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75">
+    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
@@ -5531,7 +5599,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75">
+    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
@@ -5559,7 +5627,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75">
+    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
@@ -5587,7 +5655,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75">
+    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="6"/>
@@ -5615,7 +5683,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="15">
+    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
@@ -5643,7 +5711,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="15">
+    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
@@ -5671,7 +5739,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75">
+    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="6"/>
@@ -5699,7 +5767,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="15">
+    <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
@@ -5727,7 +5795,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="15">
+    <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
@@ -5755,7 +5823,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75">
+    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="11"/>
       <c r="C161" s="6"/>
@@ -5783,7 +5851,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="15">
+    <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="11"/>
       <c r="C162" s="6"/>
@@ -5811,7 +5879,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="15">
+    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="11"/>
       <c r="C163" s="6"/>
@@ -5839,7 +5907,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75">
+    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="6"/>
@@ -5867,7 +5935,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="15">
+    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="11"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
@@ -5895,7 +5963,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="15">
+    <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="11"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
@@ -5923,7 +5991,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75">
+    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="11"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -5951,7 +6019,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="1:26" ht="15">
+    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="11"/>
       <c r="C168" s="6"/>
@@ -5979,7 +6047,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="1:26" ht="15">
+    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="11"/>
       <c r="C169" s="6"/>
@@ -6007,7 +6075,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75">
+    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -6035,7 +6103,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="15">
+    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="11"/>
       <c r="C171" s="6"/>
@@ -6063,7 +6131,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="15">
+    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="11"/>
       <c r="C172" s="6"/>
@@ -6091,7 +6159,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75">
+    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -6119,7 +6187,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="15">
+    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
@@ -6147,7 +6215,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="15">
+    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
@@ -6175,7 +6243,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75">
+    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="11"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -6203,7 +6271,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="15">
+    <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="11"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
@@ -6231,7 +6299,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="15">
+    <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="11"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
@@ -6259,7 +6327,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75">
+    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="11"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -6287,7 +6355,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="15">
+    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
@@ -6315,7 +6383,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="15">
+    <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
@@ -6343,7 +6411,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75">
+    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -6371,7 +6439,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75">
+    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -6399,7 +6467,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75">
+    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -6427,7 +6495,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75">
+    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -6455,7 +6523,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75">
+    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="11"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
@@ -6483,7 +6551,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75">
+    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="11"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
@@ -6511,7 +6579,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75">
+    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="11"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
@@ -6539,7 +6607,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75">
+    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="11"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
@@ -6567,7 +6635,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75">
+    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -6595,7 +6663,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="15">
+    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="11"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
@@ -6623,7 +6691,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="15">
+    <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="11"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
@@ -6651,7 +6719,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75">
+    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="11"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
@@ -6679,7 +6747,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75">
+    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="11"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
@@ -6707,7 +6775,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75">
+    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="11"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
@@ -6735,7 +6803,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75">
+    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="11"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
@@ -6763,7 +6831,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75">
+    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="11"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
@@ -6791,7 +6859,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="15">
+    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
@@ -6819,7 +6887,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="15">
+    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
@@ -6847,7 +6915,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75">
+    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
@@ -6875,7 +6943,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75">
+    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="6"/>
@@ -6903,7 +6971,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75">
+    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="6"/>
@@ -6931,7 +6999,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75">
+    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="6"/>
@@ -6959,7 +7027,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75">
+    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -6987,7 +7055,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75">
+    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
@@ -7015,7 +7083,7 @@
       <c r="Y205" s="11"/>
       <c r="Z205" s="11"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75">
+    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="11"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
@@ -7043,7 +7111,7 @@
       <c r="Y206" s="11"/>
       <c r="Z206" s="11"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75">
+    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="11"/>
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
@@ -7071,7 +7139,7 @@
       <c r="Y207" s="11"/>
       <c r="Z207" s="11"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75">
+    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="11"/>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
@@ -7099,7 +7167,7 @@
       <c r="Y208" s="11"/>
       <c r="Z208" s="11"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75">
+    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="11"/>
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
@@ -7127,7 +7195,7 @@
       <c r="Y209" s="11"/>
       <c r="Z209" s="11"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75">
+    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="11"/>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
@@ -7155,7 +7223,7 @@
       <c r="Y210" s="11"/>
       <c r="Z210" s="11"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75">
+    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="11"/>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
@@ -7183,7 +7251,7 @@
       <c r="Y211" s="11"/>
       <c r="Z211" s="11"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75">
+    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="11"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -7211,7 +7279,7 @@
       <c r="Y212" s="11"/>
       <c r="Z212" s="11"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75">
+    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -7239,7 +7307,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75">
+    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="11"/>
       <c r="C214" s="6"/>
@@ -7267,7 +7335,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75">
+    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="11"/>
       <c r="C215" s="6"/>
@@ -7295,7 +7363,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75">
+    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="11"/>
       <c r="C216" s="6"/>
@@ -7323,7 +7391,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75">
+    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="11"/>
       <c r="C217" s="6"/>
@@ -7351,7 +7419,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75">
+    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="11"/>
       <c r="C218" s="6"/>
@@ -7379,7 +7447,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75">
+    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="11"/>
       <c r="C219" s="6"/>
@@ -7407,7 +7475,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75">
+    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="3"/>
@@ -7435,7 +7503,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75">
+    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
@@ -7463,7 +7531,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75">
+    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -7491,7 +7559,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75">
+    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="3"/>
@@ -7519,7 +7587,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75">
+    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="3"/>
@@ -7547,7 +7615,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75">
+    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="3"/>
@@ -7575,7 +7643,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75">
+    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="3"/>
@@ -7603,7 +7671,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75">
+    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="3"/>
@@ -7631,7 +7699,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75">
+    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="3"/>
@@ -7659,7 +7727,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75">
+    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="3"/>
@@ -7687,7 +7755,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75">
+    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="3"/>
@@ -7715,7 +7783,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75">
+    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -7743,7 +7811,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75">
+    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="11"/>
       <c r="C232" s="6"/>
@@ -7771,7 +7839,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75">
+    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
@@ -7799,7 +7867,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75">
+    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="4"/>
       <c r="C234" s="3"/>
@@ -7827,7 +7895,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75">
+    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="4"/>
       <c r="C235" s="3"/>
@@ -7855,7 +7923,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75">
+    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="4"/>
       <c r="C236" s="3"/>
@@ -7883,7 +7951,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75">
+    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="4"/>
       <c r="C237" s="3"/>
@@ -7911,7 +7979,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75">
+    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="4"/>
       <c r="C238" s="3"/>
@@ -7939,7 +8007,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75">
+    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="4"/>
       <c r="C239" s="3"/>
@@ -7967,7 +8035,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75">
+    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -7995,7 +8063,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75">
+    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="11"/>
       <c r="C241" s="6"/>
@@ -8023,7 +8091,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75">
+    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="4"/>
       <c r="C242" s="3"/>
@@ -8051,7 +8119,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75">
+    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="4"/>
       <c r="C243" s="3"/>
@@ -8079,7 +8147,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75">
+    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="4"/>
       <c r="C244" s="3"/>
@@ -8107,7 +8175,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75">
+    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="4"/>
       <c r="C245" s="3"/>
@@ -8135,7 +8203,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75">
+    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="4"/>
       <c r="C246" s="3"/>
@@ -8163,7 +8231,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75">
+    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="4"/>
       <c r="C247" s="3"/>
@@ -8191,7 +8259,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75">
+    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="4"/>
       <c r="C248" s="3"/>
@@ -8219,7 +8287,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75">
+    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -8247,7 +8315,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75">
+    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="4"/>
       <c r="C250" s="3"/>
@@ -8275,7 +8343,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75">
+    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="4"/>
       <c r="C251" s="3"/>
@@ -8303,7 +8371,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75">
+    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="4"/>
       <c r="C252" s="3"/>
@@ -8331,7 +8399,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75">
+    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="4"/>
       <c r="C253" s="3"/>
@@ -8359,7 +8427,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75">
+    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="4"/>
       <c r="C254" s="3"/>
@@ -8387,7 +8455,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75">
+    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="4"/>
       <c r="C255" s="3"/>
@@ -8415,7 +8483,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75">
+    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="4"/>
       <c r="C256" s="3"/>
@@ -8443,7 +8511,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75">
+    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="4"/>
       <c r="C257" s="3"/>
@@ -8471,7 +8539,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75">
+    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -8499,7 +8567,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75">
+    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="11"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -8527,7 +8595,7 @@
       <c r="Y259" s="11"/>
       <c r="Z259" s="11"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75">
+    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="11"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -8555,7 +8623,7 @@
       <c r="Y260" s="11"/>
       <c r="Z260" s="11"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75">
+    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="11"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -8583,7 +8651,7 @@
       <c r="Y261" s="11"/>
       <c r="Z261" s="11"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75">
+    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -8611,7 +8679,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75">
+    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="11"/>
       <c r="C263" s="6"/>
@@ -8639,7 +8707,7 @@
       <c r="Y263" s="11"/>
       <c r="Z263" s="11"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75">
+    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="11"/>
       <c r="C264" s="6"/>
@@ -8667,7 +8735,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75">
+    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="11"/>
       <c r="C265" s="6"/>
@@ -8695,7 +8763,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75">
+    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -8723,7 +8791,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75">
+    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="11"/>
       <c r="B267" s="2"/>
       <c r="C267" s="6"/>
@@ -8751,7 +8819,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75">
+    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="11"/>
       <c r="B268" s="2"/>
       <c r="C268" s="6"/>
@@ -8779,7 +8847,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75">
+    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="11"/>
       <c r="B269" s="2"/>
       <c r="C269" s="6"/>
@@ -8807,7 +8875,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75">
+    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="11"/>
       <c r="B270" s="2"/>
       <c r="C270" s="6"/>
@@ -8835,7 +8903,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75">
+    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="11"/>
       <c r="B271" s="2"/>
       <c r="C271" s="6"/>
@@ -8863,7 +8931,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75">
+    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="11"/>
       <c r="B272" s="2"/>
       <c r="C272" s="6"/>
@@ -8891,7 +8959,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75">
+    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="6"/>
@@ -8919,7 +8987,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75">
+    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="11"/>
       <c r="B274" s="2"/>
       <c r="C274" s="6"/>
@@ -8947,7 +9015,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75">
+    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="11"/>
       <c r="B275" s="2"/>
       <c r="C275" s="6"/>
@@ -8975,7 +9043,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75">
+    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="11"/>
       <c r="B276" s="2"/>
       <c r="C276" s="6"/>
@@ -9003,7 +9071,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75">
+    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="11"/>
       <c r="B277" s="2"/>
       <c r="C277" s="6"/>
@@ -9031,7 +9099,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75">
+    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="11"/>
       <c r="B278" s="2"/>
       <c r="C278" s="6"/>
@@ -9059,7 +9127,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75">
+    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="11"/>
       <c r="B279" s="2"/>
       <c r="C279" s="6"/>
@@ -9087,7 +9155,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75">
+    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="6"/>
@@ -9115,7 +9183,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75">
+    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="6"/>
@@ -9143,7 +9211,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75">
+    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="6"/>
@@ -9171,7 +9239,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75">
+    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="2"/>
       <c r="C283" s="6"/>
@@ -9199,7 +9267,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75">
+    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="6"/>
@@ -9227,7 +9295,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75">
+    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="11"/>
       <c r="B285" s="2"/>
       <c r="C285" s="6"/>
@@ -9255,7 +9323,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75">
+    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="11"/>
       <c r="B286" s="2"/>
       <c r="C286" s="6"/>
@@ -9283,7 +9351,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75">
+    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="11"/>
       <c r="B287" s="2"/>
       <c r="C287" s="6"/>
@@ -9311,7 +9379,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75">
+    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="6"/>
@@ -9339,7 +9407,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75">
+    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="11"/>
       <c r="B289" s="2"/>
       <c r="C289" s="6"/>
@@ -9367,7 +9435,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75">
+    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="11"/>
       <c r="B290" s="2"/>
       <c r="C290" s="6"/>
@@ -9395,7 +9463,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75">
+    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="11"/>
       <c r="B291" s="2"/>
       <c r="C291" s="6"/>
@@ -9423,7 +9491,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75">
+    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="11"/>
       <c r="B292" s="2"/>
       <c r="C292" s="6"/>
@@ -9451,7 +9519,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75">
+    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="11"/>
       <c r="B293" s="2"/>
       <c r="C293" s="6"/>
@@ -9479,7 +9547,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75">
+    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="11"/>
       <c r="B294" s="2"/>
       <c r="C294" s="6"/>
@@ -9507,7 +9575,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75">
+    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="11"/>
       <c r="B295" s="2"/>
       <c r="C295" s="6"/>
@@ -9535,7 +9603,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75">
+    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="11"/>
       <c r="B296" s="2"/>
       <c r="C296" s="6"/>
@@ -9563,7 +9631,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75">
+    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="11"/>
       <c r="B297" s="2"/>
       <c r="C297" s="6"/>
@@ -9591,7 +9659,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75">
+    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="11"/>
       <c r="B298" s="2"/>
       <c r="C298" s="6"/>
@@ -9619,7 +9687,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75">
+    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="11"/>
       <c r="B299" s="2"/>
       <c r="C299" s="6"/>
@@ -9647,7 +9715,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75">
+    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="11"/>
       <c r="B300" s="2"/>
       <c r="C300" s="6"/>
@@ -9675,7 +9743,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75">
+    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="11"/>
       <c r="B301" s="2"/>
       <c r="C301" s="6"/>
@@ -9703,7 +9771,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75">
+    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="11"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -9731,7 +9799,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75">
+    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -9759,7 +9827,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75">
+    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -9787,7 +9855,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75">
+    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -9815,7 +9883,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75">
+    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -9843,7 +9911,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75">
+    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -9871,7 +9939,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75">
+    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -9899,7 +9967,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75">
+    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -9927,7 +9995,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75">
+    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -9955,7 +10023,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75">
+    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -9983,7 +10051,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" spans="1:26" ht="12.75">
+    <row r="312" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -10011,7 +10079,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" spans="1:26" ht="12.75">
+    <row r="313" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -10039,7 +10107,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" spans="1:26" ht="12.75">
+    <row r="314" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -10067,7 +10135,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="12.75">
+    <row r="315" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -10095,7 +10163,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" spans="1:26" ht="12.75">
+    <row r="316" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -10123,7 +10191,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" spans="1:26" ht="12.75">
+    <row r="317" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -10151,7 +10219,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" spans="1:26" ht="12.75">
+    <row r="318" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -10179,7 +10247,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" spans="1:26" ht="12.75">
+    <row r="319" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -10207,7 +10275,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" spans="1:26" ht="12.75">
+    <row r="320" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -10235,7 +10303,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" spans="1:26" ht="12.75">
+    <row r="321" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -10263,7 +10331,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" spans="1:26" ht="12.75">
+    <row r="322" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -10291,7 +10359,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" spans="1:26" ht="12.75">
+    <row r="323" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -10319,7 +10387,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" spans="1:26" ht="12.75">
+    <row r="324" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -10347,7 +10415,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" spans="1:26" ht="12.75">
+    <row r="325" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -10375,7 +10443,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" spans="1:26" ht="12.75">
+    <row r="326" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -10403,7 +10471,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" spans="1:26" ht="12.75">
+    <row r="327" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -10431,7 +10499,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" spans="1:26" ht="12.75">
+    <row r="328" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -10459,7 +10527,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" spans="1:26" ht="12.75">
+    <row r="329" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -10487,7 +10555,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" spans="1:26" ht="12.75">
+    <row r="330" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -10515,7 +10583,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" spans="1:26" ht="12.75">
+    <row r="331" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -10543,7 +10611,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" spans="1:26" ht="12.75">
+    <row r="332" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -10571,7 +10639,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" spans="1:26" ht="12.75">
+    <row r="333" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -10599,7 +10667,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" spans="1:26" ht="12.75">
+    <row r="334" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -10634,21 +10702,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="25" width="10.5703125" style="53" bestFit="1" customWidth="1"/>
     <col min="26" max="38" width="11.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15">
+    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="65">
         <v>-5.1410999999999998E-2</v>
       </c>
@@ -10767,7 +10835,7 @@
         <v>1.4474000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15">
+    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
         <v>-5.2628000000000001E-2</v>
       </c>
@@ -10886,7 +10954,7 @@
         <v>1.5002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="65">
         <v>-5.3527999999999999E-2</v>
       </c>
@@ -11005,7 +11073,7 @@
         <v>1.6670000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="65">
         <v>-5.3511000000000003E-2</v>
       </c>
@@ -11124,7 +11192,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15">
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>-5.1874999999999998E-2</v>
       </c>
@@ -11243,7 +11311,7 @@
         <v>1.6663000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15">
+    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>-5.2708999999999999E-2</v>
       </c>
@@ -11362,7 +11430,7 @@
         <v>1.6922E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15">
+    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <v>-4.9339000000000001E-2</v>
       </c>
@@ -11481,7 +11549,7 @@
         <v>1.7214E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15">
+    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>-4.8416000000000001E-2</v>
       </c>
@@ -11600,7 +11668,7 @@
         <v>1.6704E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15">
+    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>-4.7210000000000002E-2</v>
       </c>
@@ -11719,7 +11787,7 @@
         <v>1.6795999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15">
+    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>-4.4845000000000003E-2</v>
       </c>
@@ -11838,7 +11906,7 @@
         <v>1.6015000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15">
+    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>-4.4213000000000002E-2</v>
       </c>
@@ -11957,7 +12025,7 @@
         <v>1.5689999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15">
+    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>-4.1450000000000001E-2</v>
       </c>
@@ -12076,7 +12144,7 @@
         <v>1.5408E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15">
+    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>-0.04</v>
       </c>
@@ -12195,7 +12263,7 @@
         <v>1.4881E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15">
+    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <v>-3.9252000000000002E-2</v>
       </c>
@@ -12314,7 +12382,7 @@
         <v>1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15">
+    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>-3.6485999999999998E-2</v>
       </c>
@@ -12433,7 +12501,7 @@
         <v>1.3997000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15">
+    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>-3.4934E-2</v>
       </c>
@@ -12552,7 +12620,7 @@
         <v>1.3191E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15">
+    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>-3.3471000000000001E-2</v>
       </c>
@@ -12671,7 +12739,7 @@
         <v>1.2664999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15">
+    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>-3.0973000000000001E-2</v>
       </c>
@@ -12790,7 +12858,7 @@
         <v>1.1899E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15">
+    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>-3.0370000000000001E-2</v>
       </c>
@@ -12909,7 +12977,7 @@
         <v>1.1443999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15">
+    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>-2.8670000000000001E-2</v>
       </c>
@@ -13028,7 +13096,7 @@
         <v>1.1010000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15">
+    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>-2.7008000000000001E-2</v>
       </c>
@@ -13147,7 +13215,7 @@
         <v>1.0425E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15">
+    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>-2.6433000000000002E-2</v>
       </c>
@@ -13266,7 +13334,7 @@
         <v>9.979E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15">
+    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>-2.4525999999999999E-2</v>
       </c>
@@ -13385,7 +13453,7 @@
         <v>9.5219999999999992E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15">
+    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>-2.3678000000000001E-2</v>
       </c>
@@ -13504,7 +13572,7 @@
         <v>9.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15">
+    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>-2.2699E-2</v>
       </c>
@@ -13623,7 +13691,7 @@
         <v>8.5419999999999992E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15">
+    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>-2.0893999999999999E-2</v>
       </c>
@@ -13742,7 +13810,7 @@
         <v>8.2050000000000005E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15">
+    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>-2.0428999999999999E-2</v>
       </c>
@@ -13861,7 +13929,7 @@
         <v>7.6860000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15">
+    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>-1.9061999999999999E-2</v>
       </c>
@@ -13980,7 +14048,7 @@
         <v>7.4149999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15">
+    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>-1.7776E-2</v>
       </c>
@@ -14099,7 +14167,7 @@
         <v>6.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15">
+    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>-1.7346E-2</v>
       </c>
@@ -14218,7 +14286,7 @@
         <v>6.5370000000000003E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15">
+    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>-1.6291E-2</v>
       </c>
@@ -14337,7 +14405,7 @@
         <v>6.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15">
+    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>-1.5122E-2</v>
       </c>
@@ -14456,7 +14524,7 @@
         <v>6.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15">
+    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>-1.4371E-2</v>
       </c>
@@ -14575,7 +14643,7 @@
         <v>5.6889999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15">
+    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>-1.2937000000000001E-2</v>
       </c>
@@ -14694,7 +14762,7 @@
         <v>5.5319999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15">
+    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>-1.24E-2</v>
       </c>
@@ -14813,7 +14881,7 @@
         <v>5.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15">
+    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>-1.1819E-2</v>
       </c>
@@ -14932,7 +15000,7 @@
         <v>5.3150000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15">
+    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="65">
         <v>-1.1013E-2</v>
       </c>
@@ -15051,7 +15119,7 @@
         <v>5.3959999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15">
+    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>-1.0744E-2</v>
       </c>
@@ -15170,7 +15238,7 @@
         <v>5.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
         <v>-1.0274999999999999E-2</v>
       </c>
@@ -15289,7 +15357,7 @@
         <v>5.306E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15">
+    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="65">
         <v>-9.9000000000000008E-3</v>
       </c>
@@ -15408,7 +15476,7 @@
         <v>5.2969999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15">
+    <row r="41" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>-9.7009999999999996E-3</v>
       </c>
@@ -15527,7 +15595,7 @@
         <v>5.2189999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15">
+    <row r="42" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>-9.3860000000000002E-3</v>
       </c>
@@ -15646,7 +15714,7 @@
         <v>5.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15">
+    <row r="43" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>-9.2820000000000003E-3</v>
       </c>
@@ -15765,7 +15833,7 @@
         <v>5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15">
+    <row r="44" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>-9.7970000000000002E-3</v>
       </c>
@@ -15884,7 +15952,7 @@
         <v>5.0809999999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15">
+    <row r="45" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>-9.1039999999999992E-3</v>
       </c>
@@ -16003,7 +16071,7 @@
         <v>5.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15">
+    <row r="46" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>-8.4239999999999992E-3</v>
       </c>
@@ -16122,7 +16190,7 @@
         <v>5.4929999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15">
+    <row r="47" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>-8.0479999999999996E-3</v>
       </c>
@@ -16241,7 +16309,7 @@
         <v>5.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15">
+    <row r="48" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>-8.038E-3</v>
       </c>
@@ -16360,7 +16428,7 @@
         <v>5.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15">
+    <row r="49" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>-7.5319999999999996E-3</v>
       </c>
@@ -16479,7 +16547,7 @@
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15">
+    <row r="50" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>-7.2639999999999996E-3</v>
       </c>
@@ -16598,7 +16666,7 @@
         <v>5.2180000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15">
+    <row r="51" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>-6.973E-3</v>
       </c>
@@ -16717,7 +16785,7 @@
         <v>5.0569999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15">
+    <row r="52" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>-6.548E-3</v>
       </c>
@@ -16836,7 +16904,7 @@
         <v>4.9119999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15">
+    <row r="53" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="65">
         <v>-6.3819999999999997E-3</v>
       </c>
@@ -16955,7 +17023,7 @@
         <v>4.7070000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15">
+    <row r="54" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
         <v>-6.0559999999999998E-3</v>
       </c>
@@ -17074,7 +17142,7 @@
         <v>4.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15">
+    <row r="55" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="65">
         <v>-5.8430000000000001E-3</v>
       </c>
@@ -17193,7 +17261,7 @@
         <v>4.444E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15">
+    <row r="56" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="65">
         <v>-5.5469999999999998E-3</v>
       </c>
@@ -17312,7 +17380,7 @@
         <v>4.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15">
+    <row r="57" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="65">
         <v>-5.3969999999999999E-3</v>
       </c>
@@ -17431,7 +17499,7 @@
         <v>4.0670000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15">
+    <row r="58" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
         <v>-5.2490000000000002E-3</v>
       </c>
@@ -17550,7 +17618,7 @@
         <v>3.954E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15">
+    <row r="59" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="65">
         <v>-4.9909999999999998E-3</v>
       </c>
@@ -17669,7 +17737,7 @@
         <v>3.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15">
+    <row r="60" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
         <v>-4.8440000000000002E-3</v>
       </c>
@@ -17788,7 +17856,7 @@
         <v>3.7160000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15">
+    <row r="61" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="65">
         <v>-4.7609999999999996E-3</v>
       </c>
@@ -17907,7 +17975,7 @@
         <v>3.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15">
+    <row r="62" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="65">
         <v>-4.4949999999999999E-3</v>
       </c>
@@ -18026,7 +18094,7 @@
         <v>3.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15">
+    <row r="63" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="65">
         <v>-4.235E-3</v>
       </c>
@@ -18145,7 +18213,7 @@
         <v>3.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15">
+    <row r="64" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="65">
         <v>-4.0889999999999998E-3</v>
       </c>
@@ -18264,7 +18332,7 @@
         <v>3.0409999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15">
+    <row r="65" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="65">
         <v>-3.9830000000000004E-3</v>
       </c>
@@ -18383,7 +18451,7 @@
         <v>2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15">
+    <row r="66" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="65">
         <v>-3.6470000000000001E-3</v>
       </c>
@@ -18502,7 +18570,7 @@
         <v>2.66E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15">
+    <row r="67" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="65">
         <v>-3.4589999999999998E-3</v>
       </c>
@@ -18621,7 +18689,7 @@
         <v>2.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15">
+    <row r="68" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="65">
         <v>-3.261E-3</v>
       </c>
@@ -18740,7 +18808,7 @@
         <v>2.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15">
+    <row r="69" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="65">
         <v>-2.506E-3</v>
       </c>
@@ -18859,7 +18927,7 @@
         <v>1.9970000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15">
+    <row r="70" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="65">
         <v>-2.4529999999999999E-3</v>
       </c>
@@ -18978,7 +19046,7 @@
         <v>1.8209999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15">
+    <row r="71" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="65">
         <v>-2.1020000000000001E-3</v>
       </c>
@@ -19097,7 +19165,7 @@
         <v>1.6930000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15">
+    <row r="72" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="65">
         <v>-1.3990000000000001E-3</v>
       </c>
@@ -19216,7 +19284,7 @@
         <v>1.503E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15">
+    <row r="73" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="65">
         <v>-1.621E-3</v>
       </c>
@@ -19335,7 +19403,7 @@
         <v>1.482E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15">
+    <row r="74" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="65">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -19454,7 +19522,7 @@
         <v>1.488E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15">
+    <row r="75" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="65">
         <v>-9.5699999999999995E-4</v>
       </c>
@@ -19573,7 +19641,7 @@
         <v>1.5089999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15">
+    <row r="76" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="65">
         <v>-1.4859999999999999E-3</v>
       </c>
@@ -19692,7 +19760,7 @@
         <v>1.5629999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15">
+    <row r="77" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="65">
         <v>-3.6299999999999999E-4</v>
       </c>
@@ -19811,7 +19879,7 @@
         <v>1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15">
+    <row r="78" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="65">
         <v>-9.4399999999999996E-4</v>
       </c>
@@ -19930,7 +19998,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15">
+    <row r="79" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="65">
         <v>-1.24E-3</v>
       </c>
@@ -20049,7 +20117,7 @@
         <v>1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15">
+    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="65">
         <v>-3.9399999999999998E-4</v>
       </c>
@@ -20168,7 +20236,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15">
+    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="65">
         <v>-1.2999999999999999E-3</v>
       </c>
@@ -20287,7 +20355,7 @@
         <v>1.7390000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15">
+    <row r="82" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="65">
         <v>-1.8680000000000001E-3</v>
       </c>
@@ -20406,7 +20474,7 @@
         <v>1.6360000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15">
+    <row r="83" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="65">
         <v>-2.8410000000000002E-3</v>
       </c>
@@ -20531,14 +20599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="10.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9.5703125" style="53" bestFit="1" customWidth="1"/>
@@ -20546,7 +20614,7 @@
     <col min="38" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15">
+    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="65">
         <v>-3.7462000000000002E-2</v>
       </c>
@@ -20665,7 +20733,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15">
+    <row r="2" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="65">
         <v>-3.6052000000000001E-2</v>
       </c>
@@ -20784,7 +20852,7 @@
         <v>-1.519E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15">
+    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="65">
         <v>-3.3577000000000003E-2</v>
       </c>
@@ -20903,7 +20971,7 @@
         <v>-3.6110000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15">
+    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="65">
         <v>-2.844E-2</v>
       </c>
@@ -21022,7 +21090,7 @@
         <v>-6.2129999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15">
+    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>-2.2744E-2</v>
       </c>
@@ -21141,7 +21209,7 @@
         <v>-7.8079999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="15">
+    <row r="6" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>-1.8880000000000001E-2</v>
       </c>
@@ -21260,7 +21328,7 @@
         <v>-9.2180000000000005E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15">
+    <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <v>-1.541E-2</v>
       </c>
@@ -21379,7 +21447,7 @@
         <v>-9.8180000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15">
+    <row r="8" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>-1.2751999999999999E-2</v>
       </c>
@@ -21498,7 +21566,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15">
+    <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>-1.1493E-2</v>
       </c>
@@ -21617,7 +21685,7 @@
         <v>-9.306E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15">
+    <row r="10" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>-1.0059E-2</v>
       </c>
@@ -21736,7 +21804,7 @@
         <v>-8.7180000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15">
+    <row r="11" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>-9.0779999999999993E-3</v>
       </c>
@@ -21855,7 +21923,7 @@
         <v>-8.0649999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15">
+    <row r="12" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="65">
         <v>-8.6269999999999993E-3</v>
       </c>
@@ -21974,7 +22042,7 @@
         <v>-7.3039999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15">
+    <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
         <v>-7.8659999999999997E-3</v>
       </c>
@@ -22093,7 +22161,7 @@
         <v>-6.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15">
+    <row r="14" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="65">
         <v>-7.9260000000000008E-3</v>
       </c>
@@ -22212,7 +22280,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15">
+    <row r="15" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="65">
         <v>-7.7060000000000002E-3</v>
       </c>
@@ -22331,7 +22399,7 @@
         <v>-5.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15">
+    <row r="16" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>-7.4400000000000004E-3</v>
       </c>
@@ -22450,7 +22518,7 @@
         <v>-5.1570000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15">
+    <row r="17" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>-7.2639999999999996E-3</v>
       </c>
@@ -22569,7 +22637,7 @@
         <v>-4.8859999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15">
+    <row r="18" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>-6.6290000000000003E-3</v>
       </c>
@@ -22688,7 +22756,7 @@
         <v>-4.627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="15">
+    <row r="19" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>-6.1069999999999996E-3</v>
       </c>
@@ -22807,7 +22875,7 @@
         <v>-4.4609999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15">
+    <row r="20" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="65">
         <v>-6.1700000000000001E-3</v>
       </c>
@@ -22926,7 +22994,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="15">
+    <row r="21" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>-5.9080000000000001E-3</v>
       </c>
@@ -23045,7 +23113,7 @@
         <v>-4.1130000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15">
+    <row r="22" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>-6.0790000000000002E-3</v>
       </c>
@@ -23164,7 +23232,7 @@
         <v>-3.9810000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15">
+    <row r="23" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="65">
         <v>-6.3879999999999996E-3</v>
       </c>
@@ -23283,7 +23351,7 @@
         <v>-3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15">
+    <row r="24" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="65">
         <v>-6.4099999999999999E-3</v>
       </c>
@@ -23402,7 +23470,7 @@
         <v>-3.6419999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="15">
+    <row r="25" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
         <v>-6.496E-3</v>
       </c>
@@ -23521,7 +23589,7 @@
         <v>-3.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15">
+    <row r="26" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="65">
         <v>-6.483E-3</v>
       </c>
@@ -23640,7 +23708,7 @@
         <v>-3.5360000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="15">
+    <row r="27" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>-6.4359999999999999E-3</v>
       </c>
@@ -23759,7 +23827,7 @@
         <v>-3.5820000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="15">
+    <row r="28" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="65">
         <v>-6.7730000000000004E-3</v>
       </c>
@@ -23878,7 +23946,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15">
+    <row r="29" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="65">
         <v>-6.9969999999999997E-3</v>
       </c>
@@ -23997,7 +24065,7 @@
         <v>-3.5590000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="15">
+    <row r="30" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="65">
         <v>-6.6680000000000003E-3</v>
       </c>
@@ -24116,7 +24184,7 @@
         <v>-3.627E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15">
+    <row r="31" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
         <v>-6.4910000000000002E-3</v>
       </c>
@@ -24235,7 +24303,7 @@
         <v>-3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15">
+    <row r="32" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="65">
         <v>-6.0460000000000002E-3</v>
       </c>
@@ -24354,7 +24422,7 @@
         <v>-3.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="15">
+    <row r="33" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="65">
         <v>-5.8809999999999999E-3</v>
       </c>
@@ -24473,7 +24541,7 @@
         <v>-4.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="15">
+    <row r="34" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="65">
         <v>-5.5799999999999999E-3</v>
       </c>
@@ -24592,7 +24660,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15">
+    <row r="35" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="65">
         <v>-5.176E-3</v>
       </c>
@@ -24711,7 +24779,7 @@
         <v>-4.0930000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15">
+    <row r="36" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="65">
         <v>-4.9659999999999999E-3</v>
       </c>
@@ -24830,7 +24898,7 @@
         <v>-3.9370000000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="15">
+    <row r="37" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="65">
         <v>-4.6490000000000004E-3</v>
       </c>
@@ -24949,7 +25017,7 @@
         <v>-3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15">
+    <row r="38" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="65">
         <v>-4.7679999999999997E-3</v>
       </c>
@@ -25068,7 +25136,7 @@
         <v>-3.0119999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="15">
+    <row r="39" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="65">
         <v>-5.019E-3</v>
       </c>
@@ -25187,7 +25255,7 @@
         <v>-2.3739999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="15">
+    <row r="40" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="65">
         <v>-5.0419999999999996E-3</v>
       </c>
@@ -25306,7 +25374,7 @@
         <v>-1.6980000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15">
+    <row r="41" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="65">
         <v>-5.3030000000000004E-3</v>
       </c>
@@ -25425,7 +25493,7 @@
         <v>-1.181E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="15">
+    <row r="42" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="65">
         <v>-5.6730000000000001E-3</v>
       </c>
@@ -25544,7 +25612,7 @@
         <v>-6.9099999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15">
+    <row r="43" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="65">
         <v>-5.7780000000000001E-3</v>
       </c>
@@ -25663,7 +25731,7 @@
         <v>-3.7399999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15">
+    <row r="44" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="65">
         <v>-6.2680000000000001E-3</v>
       </c>
@@ -25782,7 +25850,7 @@
         <v>-3.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="15">
+    <row r="45" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="65">
         <v>-7.476E-3</v>
       </c>
@@ -25901,7 +25969,7 @@
         <v>2.104E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="15">
+    <row r="46" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="65">
         <v>-7.5620000000000001E-3</v>
       </c>
@@ -26020,7 +26088,7 @@
         <v>2.3509999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15">
+    <row r="47" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>-7.4739999999999997E-3</v>
       </c>
@@ -26139,7 +26207,7 @@
         <v>2.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="15">
+    <row r="48" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="65">
         <v>-7.3680000000000004E-3</v>
       </c>
@@ -26258,7 +26326,7 @@
         <v>2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15">
+    <row r="49" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="65">
         <v>-7.2680000000000002E-3</v>
       </c>
@@ -26377,7 +26445,7 @@
         <v>2.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15">
+    <row r="50" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="65">
         <v>-7.0400000000000003E-3</v>
       </c>
@@ -26496,7 +26564,7 @@
         <v>2.794E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="15">
+    <row r="51" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="65">
         <v>-6.9129999999999999E-3</v>
       </c>
@@ -26615,7 +26683,7 @@
         <v>2.699E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="15">
+    <row r="52" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="65">
         <v>-6.7450000000000001E-3</v>
       </c>
@@ -26734,7 +26802,7 @@
         <v>2.6610000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15">
+    <row r="53" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="65">
         <v>-6.6499999999999997E-3</v>
       </c>
@@ -26853,7 +26921,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="15">
+    <row r="54" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="65">
         <v>-6.5259999999999997E-3</v>
       </c>
@@ -26972,7 +27040,7 @@
         <v>2.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="15">
+    <row r="55" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="65">
         <v>-6.319E-3</v>
       </c>
@@ -27091,7 +27159,7 @@
         <v>2.3310000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15">
+    <row r="56" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="65">
         <v>-6.2449999999999997E-3</v>
       </c>
@@ -27210,7 +27278,7 @@
         <v>2.1949999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15">
+    <row r="57" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="65">
         <v>-6.1310000000000002E-3</v>
       </c>
@@ -27329,7 +27397,7 @@
         <v>2.0049999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="15">
+    <row r="58" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="65">
         <v>-5.9379999999999997E-3</v>
       </c>
@@ -27448,7 +27516,7 @@
         <v>1.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15">
+    <row r="59" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="65">
         <v>-5.9890000000000004E-3</v>
       </c>
@@ -27567,7 +27635,7 @@
         <v>1.6739999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="15">
+    <row r="60" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="65">
         <v>-5.8269999999999997E-3</v>
       </c>
@@ -27686,7 +27754,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15">
+    <row r="61" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="65">
         <v>-5.6839999999999998E-3</v>
       </c>
@@ -27805,7 +27873,7 @@
         <v>1.3060000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15">
+    <row r="62" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="65">
         <v>-5.5669999999999999E-3</v>
       </c>
@@ -27924,7 +27992,7 @@
         <v>1.178E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="15">
+    <row r="63" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="65">
         <v>-5.293E-3</v>
       </c>
@@ -28043,7 +28111,7 @@
         <v>9.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15">
+    <row r="64" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="65">
         <v>-5.1089999999999998E-3</v>
       </c>
@@ -28162,7 +28230,7 @@
         <v>7.2999999999999996E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15">
+    <row r="65" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="65">
         <v>-4.849E-3</v>
       </c>
@@ -28281,7 +28349,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15">
+    <row r="66" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="65">
         <v>-4.3210000000000002E-3</v>
       </c>
@@ -28400,7 +28468,7 @@
         <v>2.52E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="15">
+    <row r="67" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="65">
         <v>-4.4910000000000002E-3</v>
       </c>
@@ -28519,7 +28587,7 @@
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15">
+    <row r="68" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="65">
         <v>-4.2199999999999998E-3</v>
       </c>
@@ -28638,7 +28706,7 @@
         <v>-1.84E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="15">
+    <row r="69" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="65">
         <v>-4.0210000000000003E-3</v>
       </c>
@@ -28757,7 +28825,7 @@
         <v>-4.3899999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="15">
+    <row r="70" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="65">
         <v>-3.8509999999999998E-3</v>
       </c>
@@ -28876,7 +28944,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15">
+    <row r="71" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="65">
         <v>-3.5309999999999999E-3</v>
       </c>
@@ -28995,7 +29063,7 @@
         <v>-7.4600000000000003E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15">
+    <row r="72" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="65">
         <v>-3.3899999999999998E-3</v>
       </c>
@@ -29114,7 +29182,7 @@
         <v>-8.0599999999999997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15">
+    <row r="73" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="65">
         <v>-3.284E-3</v>
       </c>
@@ -29233,7 +29301,7 @@
         <v>-7.0600000000000003E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15">
+    <row r="74" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="65">
         <v>-3.0469999999999998E-3</v>
       </c>
@@ -29352,7 +29420,7 @@
         <v>-5.2499999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15">
+    <row r="75" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="65">
         <v>-3.068E-3</v>
       </c>
@@ -29471,7 +29539,7 @@
         <v>-2.22E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15">
+    <row r="76" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="65">
         <v>-3.1979999999999999E-3</v>
       </c>
@@ -29590,7 +29658,7 @@
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15">
+    <row r="77" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="65">
         <v>-3.3509999999999998E-3</v>
       </c>
@@ -29709,7 +29777,7 @@
         <v>6.6100000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15">
+    <row r="78" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="65">
         <v>-3.565E-3</v>
       </c>
@@ -29828,7 +29896,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15">
+    <row r="79" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="65">
         <v>-3.4989999999999999E-3</v>
       </c>
@@ -29947,7 +30015,7 @@
         <v>1.351E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15">
+    <row r="80" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="65">
         <v>-3.6089999999999998E-3</v>
       </c>
@@ -30066,7 +30134,7 @@
         <v>1.5250000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="15">
+    <row r="81" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="65">
         <v>-3.872E-3</v>
       </c>
@@ -30185,7 +30253,7 @@
         <v>1.536E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="15">
+    <row r="82" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="65">
         <v>-3.9810000000000002E-3</v>
       </c>
@@ -30304,7 +30372,7 @@
         <v>1.41E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15">
+    <row r="83" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="65">
         <v>-5.2859999999999999E-3</v>
       </c>
